--- a/Data Scrapping/Excels/Joymee/Joymee.xlsx
+++ b/Data Scrapping/Excels/Joymee/Joymee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="277">
   <si>
     <t>Источник</t>
   </si>
@@ -502,6 +502,66 @@
     <t>Продаётся Евро Дом Сергилийский район Ориентир:Чоштепа</t>
   </si>
   <si>
+    <t>Продается квартира в Сергели-7 с мебелью.</t>
+  </si>
+  <si>
+    <t>Yangi uy</t>
+  </si>
+  <si>
+    <t>Yunusabad-18 Sayram bazar 2’3/4/5</t>
+  </si>
+  <si>
+    <t>Продается квартира Юнусабад 7кв</t>
+  </si>
+  <si>
+    <t>Arzon narxda kottedjlar sotuvda</t>
+  </si>
+  <si>
+    <t>novostroyka beltepa</t>
+  </si>
+  <si>
+    <t>Продаётся Дом в элитном районе!!! Казы махалля</t>
+  </si>
+  <si>
+    <t>СЕРГЕЛИ 6А</t>
+  </si>
+  <si>
+    <t>4-хонали квартира сотилади. Балкон 9*2. Метро яқин</t>
+  </si>
+  <si>
+    <t>Продаётся участок под застройку на Лимонария в элитном махалле</t>
+  </si>
+  <si>
+    <t>ЧИЛАНЗАР 9</t>
+  </si>
+  <si>
+    <t>1 х сотилади</t>
+  </si>
+  <si>
+    <t>Сотилади Банк оркали</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Срочно продается дом Бектимирский район махалля Абай</t>
+  </si>
+  <si>
+    <t>Срочно продается дом Бектемирский район  Абай махалла</t>
+  </si>
+  <si>
+    <t>yer sotiladi</t>
+  </si>
+  <si>
+    <t>ПРОДАЁТСЯ Юнусабад 4 квартал ориентир Автосалон</t>
+  </si>
+  <si>
+    <t>ПРОДАЁТСЯ Юнусабад 9 квартал  22 дом ориентир  Карзинка супермаркет</t>
+  </si>
+  <si>
+    <t>СЕРГЕЛИ  6 А</t>
+  </si>
+  <si>
     <t>Квартира</t>
   </si>
   <si>
@@ -514,51 +574,33 @@
     <t>Новостройка</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Евроремонт</t>
   </si>
   <si>
@@ -577,78 +619,90 @@
     <t>Требуется ремонт</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>56.79</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
-    <t>4000</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>33</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>96</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>17.01.2024</t>
   </si>
   <si>
@@ -770,6 +824,21 @@
   </si>
   <si>
     <t>23.04.2024</t>
+  </si>
+  <si>
+    <t>26.04.2024</t>
+  </si>
+  <si>
+    <t>25.04.2024</t>
+  </si>
+  <si>
+    <t>21.04.2024</t>
+  </si>
+  <si>
+    <t>18.04.2024</t>
+  </si>
+  <si>
+    <t>25.03.2024</t>
   </si>
   <si>
     <t>USD</t>
@@ -1133,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,10 +1272,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G2">
         <v>41.33988919962425</v>
@@ -1221,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M2">
         <v>44</v>
@@ -1230,16 +1299,16 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>48000</v>
       </c>
       <c r="R2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1250,10 +1319,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G3">
         <v>41.34905143812688</v>
@@ -1268,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M3">
         <v>65</v>
@@ -1277,16 +1346,16 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>78000</v>
       </c>
       <c r="R3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1297,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G4">
         <v>41.36786027316452</v>
@@ -1312,16 +1381,16 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>286000</v>
       </c>
       <c r="R4" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1332,10 +1401,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G5">
         <v>41.3692</v>
@@ -1350,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5">
         <v>75</v>
@@ -1359,16 +1428,16 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q5">
         <v>85000</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1379,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G6">
         <v>41.3462</v>
@@ -1397,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M6">
         <v>11.25</v>
@@ -1406,16 +1475,16 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>1240000</v>
       </c>
       <c r="R6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1426,10 +1495,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G7">
         <v>41.3561</v>
@@ -1444,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M7">
         <v>68</v>
@@ -1453,16 +1522,16 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q7">
         <v>72000</v>
       </c>
       <c r="R7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1473,10 +1542,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <v>41.36220218730538</v>
@@ -1491,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M8">
         <v>52</v>
@@ -1500,16 +1569,16 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>69000</v>
       </c>
       <c r="R8" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1520,10 +1589,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G9">
         <v>41.3579</v>
@@ -1538,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M9">
         <v>42</v>
@@ -1547,16 +1616,16 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>48500</v>
       </c>
       <c r="R9" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1567,10 +1636,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G10">
         <v>41.3692</v>
@@ -1585,22 +1654,22 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M10">
         <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>75000</v>
       </c>
       <c r="R10" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1611,7 +1680,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G11">
         <v>41.28956629545225</v>
@@ -1623,22 +1692,22 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M11">
         <v>500</v>
       </c>
       <c r="O11" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>380000</v>
       </c>
       <c r="R11" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1649,10 +1718,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G12">
         <v>41.2855</v>
@@ -1667,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -1676,16 +1745,16 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>43000</v>
       </c>
       <c r="R12" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1696,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G13">
         <v>41.3602271658705</v>
@@ -1714,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M13">
         <v>42</v>
@@ -1723,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>66000</v>
       </c>
       <c r="R13" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1743,10 +1812,10 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G14">
         <v>41.37300755420793</v>
@@ -1761,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M14">
         <v>42</v>
@@ -1770,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q14">
         <v>51500</v>
       </c>
       <c r="R14" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1790,10 +1859,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G15">
         <v>41.21968939962463</v>
@@ -1808,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M15">
         <v>87</v>
@@ -1817,16 +1886,16 @@
         <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>75000</v>
       </c>
       <c r="R15" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1837,10 +1906,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G16">
         <v>41.348669212164</v>
@@ -1855,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M16">
         <v>73</v>
@@ -1864,16 +1933,16 @@
         <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q16">
         <v>110000</v>
       </c>
       <c r="R16" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1884,10 +1953,10 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G17">
         <v>41.3346285704621</v>
@@ -1902,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M17">
         <v>57</v>
@@ -1911,16 +1980,16 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q17">
         <v>63000</v>
       </c>
       <c r="R17" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1931,10 +2000,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G18">
         <v>41.2038</v>
@@ -1949,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M18">
         <v>71</v>
@@ -1958,16 +2027,16 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>69200</v>
       </c>
       <c r="R18" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1978,10 +2047,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>41.3189</v>
@@ -1996,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M19">
         <v>57</v>
@@ -2005,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>51000</v>
       </c>
       <c r="R19" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2025,10 +2094,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G20">
         <v>41.32175897327509</v>
@@ -2043,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M20">
         <v>90</v>
@@ -2052,16 +2121,16 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>120000</v>
       </c>
       <c r="R20" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2072,10 +2141,10 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21">
         <v>41.23138261373803</v>
@@ -2090,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M21">
         <v>48</v>
@@ -2099,16 +2168,16 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>45000</v>
       </c>
       <c r="R21" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2119,10 +2188,10 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G22">
         <v>41.326</v>
@@ -2134,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M22">
         <v>100</v>
@@ -2143,16 +2212,16 @@
         <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>155000</v>
       </c>
       <c r="R22" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2163,10 +2232,10 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G23">
         <v>41.2159648</v>
@@ -2181,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M23">
         <v>71</v>
@@ -2190,16 +2259,16 @@
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q23">
         <v>78000</v>
       </c>
       <c r="R23" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2210,10 +2279,10 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G24">
         <v>41.3262</v>
@@ -2228,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -2237,16 +2306,16 @@
         <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q24">
         <v>135000</v>
       </c>
       <c r="R24" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2257,10 +2326,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G25">
         <v>41.2237</v>
@@ -2275,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M25">
         <v>42</v>
@@ -2284,16 +2353,16 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q25">
         <v>31500</v>
       </c>
       <c r="R25" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2304,10 +2373,10 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G26">
         <v>41.354</v>
@@ -2322,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M26">
         <v>80</v>
@@ -2331,16 +2400,16 @@
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q26">
         <v>73000</v>
       </c>
       <c r="R26" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2351,10 +2420,10 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G27">
         <v>41.36085559519991</v>
@@ -2369,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M27">
         <v>58</v>
@@ -2378,16 +2447,16 @@
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q27">
         <v>68000</v>
       </c>
       <c r="R27" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2398,7 +2467,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G28">
         <v>41.2686</v>
@@ -2410,22 +2479,22 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M28">
         <v>570</v>
       </c>
       <c r="O28" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q28">
         <v>420000</v>
       </c>
       <c r="R28" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2436,10 +2505,10 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G29">
         <v>41.33586423283698</v>
@@ -2454,7 +2523,7 @@
         <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M29">
         <v>100</v>
@@ -2463,16 +2532,16 @@
         <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q29">
         <v>130000</v>
       </c>
       <c r="R29" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2483,10 +2552,10 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G30">
         <v>41.33594894207363</v>
@@ -2501,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M30">
         <v>44</v>
@@ -2510,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q30">
         <v>52500</v>
       </c>
       <c r="R30" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2530,7 +2599,7 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G31">
         <v>41.26223363794561</v>
@@ -2542,22 +2611,22 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M31">
         <v>180</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>60000</v>
       </c>
       <c r="R31" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2568,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G32">
         <v>41.2266</v>
@@ -2580,22 +2649,22 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M32">
         <v>220</v>
       </c>
       <c r="O32" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>98000</v>
       </c>
       <c r="R32" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2606,10 +2675,10 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G33">
         <v>41.37610480477002</v>
@@ -2624,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M33">
         <v>78</v>
@@ -2633,16 +2702,16 @@
         <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>83000</v>
       </c>
       <c r="R33" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2653,10 +2722,10 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G34">
         <v>41.26994775148582</v>
@@ -2671,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M34">
         <v>58</v>
@@ -2680,16 +2749,16 @@
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>70000</v>
       </c>
       <c r="R34" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2700,7 +2769,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G35">
         <v>41.283463</v>
@@ -2715,16 +2784,16 @@
         <v>1061</v>
       </c>
       <c r="O35" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P35" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q35">
         <v>690000</v>
       </c>
       <c r="R35" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2735,10 +2804,10 @@
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G36">
         <v>41.21176778412908</v>
@@ -2753,22 +2822,22 @@
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>75000</v>
       </c>
       <c r="R36" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2779,7 +2848,7 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G37">
         <v>41.3437</v>
@@ -2791,16 +2860,16 @@
         <v>480</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q37">
         <v>320000</v>
       </c>
       <c r="R37" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2811,10 +2880,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G38">
         <v>41.21904633872502</v>
@@ -2829,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M38">
         <v>73</v>
@@ -2838,16 +2907,16 @@
         <v>3</v>
       </c>
       <c r="O38" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>68000</v>
       </c>
       <c r="R38" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2858,10 +2927,10 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G39">
         <v>41.30578424906788</v>
@@ -2876,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M39">
         <v>135</v>
@@ -2885,16 +2954,16 @@
         <v>3</v>
       </c>
       <c r="O39" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q39">
         <v>170000</v>
       </c>
       <c r="R39" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2905,10 +2974,10 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G40">
         <v>41.31870314610156</v>
@@ -2923,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M40">
         <v>56</v>
@@ -2932,16 +3001,16 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>78000</v>
       </c>
       <c r="R40" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2952,10 +3021,10 @@
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G41">
         <v>41.31588238578758</v>
@@ -2970,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="L41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M41">
         <v>96</v>
@@ -2979,16 +3048,16 @@
         <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>299900</v>
       </c>
       <c r="R41" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2999,7 +3068,7 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G42">
         <v>41.24392636684543</v>
@@ -3011,22 +3080,22 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M42">
         <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>165000</v>
       </c>
       <c r="R42" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3037,10 +3106,10 @@
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G43">
         <v>41.34635665614607</v>
@@ -3055,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="L43" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M43">
         <v>107</v>
@@ -3064,16 +3133,16 @@
         <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>128000</v>
       </c>
       <c r="R43" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3084,10 +3153,10 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G44">
         <v>41.1937</v>
@@ -3102,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M44">
         <v>56</v>
@@ -3111,16 +3180,16 @@
         <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>57800</v>
       </c>
       <c r="R44" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3131,7 +3200,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G45">
         <v>41.2687</v>
@@ -3143,16 +3212,16 @@
         <v>475</v>
       </c>
       <c r="O45" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q45">
         <v>230</v>
       </c>
       <c r="R45" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3163,10 +3232,10 @@
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G46">
         <v>41.2815</v>
@@ -3181,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M46">
         <v>112</v>
@@ -3190,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="O46" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>125000</v>
       </c>
       <c r="R46" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3210,7 +3279,7 @@
         <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G47">
         <v>41.2130233</v>
@@ -3222,22 +3291,22 @@
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M47">
         <v>220</v>
       </c>
       <c r="O47" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q47">
         <v>125000</v>
       </c>
       <c r="R47" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3248,10 +3317,10 @@
         <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G48">
         <v>41.26570307892677</v>
@@ -3266,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M48">
         <v>18</v>
@@ -3275,16 +3344,16 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q48">
         <v>25500</v>
       </c>
       <c r="R48" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3295,7 +3364,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G49">
         <v>41.21192966945382</v>
@@ -3307,22 +3376,22 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M49">
         <v>900</v>
       </c>
       <c r="O49" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q49">
         <v>140000</v>
       </c>
       <c r="R49" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3333,10 +3402,10 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G50">
         <v>41.26929839699149</v>
@@ -3351,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M50">
         <v>48</v>
@@ -3360,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>48000</v>
       </c>
       <c r="R50" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3380,10 +3449,10 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G51">
         <v>41.3665</v>
@@ -3398,7 +3467,7 @@
         <v>5</v>
       </c>
       <c r="L51" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M51">
         <v>49</v>
@@ -3407,16 +3476,16 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>58000</v>
       </c>
       <c r="R51" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3427,10 +3496,10 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G52">
         <v>41.3737</v>
@@ -3445,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="L52" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M52">
         <v>90</v>
@@ -3454,16 +3523,16 @@
         <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>95000</v>
       </c>
       <c r="R52" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3474,10 +3543,10 @@
         <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G53">
         <v>41.3666</v>
@@ -3492,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="L53" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M53">
         <v>44</v>
@@ -3501,16 +3570,16 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>49000</v>
       </c>
       <c r="R53" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3521,10 +3590,10 @@
         <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G54">
         <v>41.37425215767973</v>
@@ -3539,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="L54" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M54">
         <v>58</v>
@@ -3548,16 +3617,16 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>68000</v>
       </c>
       <c r="R54" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3568,10 +3637,10 @@
         <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G55">
         <v>41.2663</v>
@@ -3586,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="L55" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M55">
         <v>57</v>
@@ -3595,16 +3664,16 @@
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>55000</v>
       </c>
       <c r="R55" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3615,10 +3684,10 @@
         <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G56">
         <v>41.36850561482058</v>
@@ -3633,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="L56" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M56">
         <v>38</v>
@@ -3642,16 +3711,16 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>48500</v>
       </c>
       <c r="R56" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3662,10 +3731,10 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G57">
         <v>41.2764</v>
@@ -3680,7 +3749,7 @@
         <v>5</v>
       </c>
       <c r="L57" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M57">
         <v>42</v>
@@ -3689,16 +3758,16 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>52500</v>
       </c>
       <c r="R57" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3709,10 +3778,10 @@
         <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G58">
         <v>41.21888831177111</v>
@@ -3727,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M58">
         <v>31</v>
@@ -3736,16 +3805,16 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>18000</v>
       </c>
       <c r="R58" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3756,10 +3825,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G59">
         <v>41.27272561226086</v>
@@ -3774,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="L59" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M59">
         <v>68</v>
@@ -3783,16 +3852,16 @@
         <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>95000</v>
       </c>
       <c r="R59" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3803,7 +3872,7 @@
         <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G60">
         <v>41.3618653597327</v>
@@ -3818,16 +3887,16 @@
         <v>216</v>
       </c>
       <c r="O60" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>155000</v>
       </c>
       <c r="R60" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3838,10 +3907,10 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G61">
         <v>41.28147927005531</v>
@@ -3856,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="L61" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M61">
         <v>77</v>
@@ -3865,16 +3934,16 @@
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>84000</v>
       </c>
       <c r="R61" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3885,7 +3954,7 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G62">
         <v>41.3273</v>
@@ -3897,16 +3966,16 @@
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M62">
         <v>1000</v>
       </c>
       <c r="O62" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="R62" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3917,10 +3986,10 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G63">
         <v>41.35541698268227</v>
@@ -3935,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="L63" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M63">
         <v>65</v>
@@ -3944,16 +4013,16 @@
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>74000</v>
       </c>
       <c r="R63" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3964,7 +4033,7 @@
         <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G64">
         <v>41.2793</v>
@@ -3976,22 +4045,22 @@
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M64">
         <v>210</v>
       </c>
       <c r="O64" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>158000</v>
       </c>
       <c r="R64" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4002,7 +4071,7 @@
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G65">
         <v>41.32989883824209</v>
@@ -4014,22 +4083,22 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M65">
         <v>280</v>
       </c>
       <c r="O65" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>148000</v>
       </c>
       <c r="R65" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4040,7 +4109,7 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G66">
         <v>41.3491</v>
@@ -4052,22 +4121,22 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M66">
         <v>200</v>
       </c>
       <c r="O66" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>130000</v>
       </c>
       <c r="R66" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4078,7 +4147,7 @@
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G67">
         <v>41.3516</v>
@@ -4093,16 +4162,16 @@
         <v>600</v>
       </c>
       <c r="O67" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>60000</v>
       </c>
       <c r="R67" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4113,10 +4182,10 @@
         <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G68">
         <v>41.2091511</v>
@@ -4131,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="L68" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M68">
         <v>65</v>
@@ -4140,16 +4209,16 @@
         <v>3</v>
       </c>
       <c r="O68" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>77000</v>
       </c>
       <c r="R68" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4160,10 +4229,10 @@
         <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G69">
         <v>41.3695</v>
@@ -4178,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="L69" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M69">
         <v>62</v>
@@ -4187,16 +4256,16 @@
         <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>75000</v>
       </c>
       <c r="R69" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4207,10 +4276,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G70">
         <v>41.293</v>
@@ -4225,7 +4294,7 @@
         <v>7</v>
       </c>
       <c r="L70" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M70">
         <v>84</v>
@@ -4234,16 +4303,16 @@
         <v>5</v>
       </c>
       <c r="O70" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>100000</v>
       </c>
       <c r="R70" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4254,10 +4323,10 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G71">
         <v>41.33706097625795</v>
@@ -4272,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="L71" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M71">
         <v>165</v>
@@ -4281,16 +4350,16 @@
         <v>5</v>
       </c>
       <c r="O71" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>180000</v>
       </c>
       <c r="R71" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4301,10 +4370,10 @@
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G72">
         <v>41.3377</v>
@@ -4319,7 +4388,7 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M72">
         <v>62</v>
@@ -4328,16 +4397,16 @@
         <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>65000</v>
       </c>
       <c r="R72" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4348,10 +4417,10 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G73">
         <v>41.27322810409063</v>
@@ -4366,7 +4435,7 @@
         <v>5</v>
       </c>
       <c r="L73" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M73">
         <v>70</v>
@@ -4375,16 +4444,16 @@
         <v>3</v>
       </c>
       <c r="O73" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>71000</v>
       </c>
       <c r="R73" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4395,10 +4464,10 @@
         <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G74">
         <v>41.38235850015496</v>
@@ -4413,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M74">
         <v>86</v>
@@ -4422,16 +4491,16 @@
         <v>3</v>
       </c>
       <c r="O74" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>115000</v>
       </c>
       <c r="R74" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4442,10 +4511,10 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G75">
         <v>41.3577</v>
@@ -4460,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="L75" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M75">
         <v>43</v>
@@ -4469,16 +4538,16 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>100000</v>
       </c>
       <c r="R75" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4489,7 +4558,7 @@
         <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G76">
         <v>41.361546419879</v>
@@ -4504,16 +4573,16 @@
         <v>385</v>
       </c>
       <c r="O76" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>105000</v>
       </c>
       <c r="R76" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4524,7 +4593,7 @@
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G77">
         <v>41.3014</v>
@@ -4536,22 +4605,22 @@
         <v>2</v>
       </c>
       <c r="L77" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M77">
         <v>500</v>
       </c>
       <c r="O77" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>220000</v>
       </c>
       <c r="R77" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4562,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G78">
         <v>41.3886</v>
@@ -4574,16 +4643,16 @@
         <v>450</v>
       </c>
       <c r="O78" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>260000</v>
       </c>
       <c r="R78" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -4594,7 +4663,7 @@
         <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G79">
         <v>41.314</v>
@@ -4609,16 +4678,16 @@
         <v>850</v>
       </c>
       <c r="O79" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>350000</v>
       </c>
       <c r="R79" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -4629,7 +4698,7 @@
         <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G80">
         <v>41.3201</v>
@@ -4641,22 +4710,22 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M80">
         <v>760</v>
       </c>
       <c r="O80" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>268000</v>
       </c>
       <c r="R80" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -4667,10 +4736,10 @@
         <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G81">
         <v>41.38119655377462</v>
@@ -4685,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="L81" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M81">
         <v>50</v>
@@ -4694,16 +4763,16 @@
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>65000</v>
       </c>
       <c r="R81" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -4714,10 +4783,10 @@
         <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G82">
         <v>41.2244731673024</v>
@@ -4732,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="L82" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M82">
         <v>90</v>
@@ -4741,16 +4810,16 @@
         <v>4</v>
       </c>
       <c r="O82" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>80000</v>
       </c>
       <c r="R82" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -4761,7 +4830,7 @@
         <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G83">
         <v>41.3812</v>
@@ -4773,16 +4842,16 @@
         <v>515</v>
       </c>
       <c r="O83" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>195000</v>
       </c>
       <c r="R83" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -4793,7 +4862,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G84">
         <v>41.246</v>
@@ -4808,16 +4877,16 @@
         <v>730</v>
       </c>
       <c r="O84" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>240000</v>
       </c>
       <c r="R84" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -4828,7 +4897,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G85">
         <v>41.269072589071</v>
@@ -4840,22 +4909,22 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M85">
         <v>450</v>
       </c>
       <c r="O85" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>165000</v>
       </c>
       <c r="R85" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -4866,7 +4935,7 @@
         <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G86">
         <v>41.2279</v>
@@ -4878,22 +4947,22 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M86">
         <v>850</v>
       </c>
       <c r="O86" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>280000</v>
       </c>
       <c r="R86" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -4904,10 +4973,10 @@
         <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G87">
         <v>41.270709</v>
@@ -4922,7 +4991,7 @@
         <v>10</v>
       </c>
       <c r="L87" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M87">
         <v>154</v>
@@ -4931,16 +5000,16 @@
         <v>5</v>
       </c>
       <c r="O87" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>224000</v>
       </c>
       <c r="R87" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -4951,10 +5020,10 @@
         <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G88">
         <v>41.25935034357209</v>
@@ -4969,7 +5038,7 @@
         <v>9</v>
       </c>
       <c r="L88" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M88">
         <v>39</v>
@@ -4978,16 +5047,16 @@
         <v>1</v>
       </c>
       <c r="O88" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>59000</v>
       </c>
       <c r="R88" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -4998,10 +5067,10 @@
         <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G89">
         <v>41.3119</v>
@@ -5016,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="L89" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M89">
         <v>38</v>
@@ -5025,16 +5094,16 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>57000</v>
       </c>
       <c r="R89" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5045,10 +5114,10 @@
         <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G90">
         <v>41.3053</v>
@@ -5063,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="L90" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M90">
         <v>54</v>
@@ -5072,16 +5141,16 @@
         <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>47000</v>
       </c>
       <c r="R90" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5092,10 +5161,10 @@
         <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G91">
         <v>41.3767816773355</v>
@@ -5110,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="L91" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M91">
         <v>71</v>
@@ -5119,16 +5188,16 @@
         <v>3</v>
       </c>
       <c r="O91" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>70000</v>
       </c>
       <c r="R91" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5139,7 +5208,7 @@
         <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G92">
         <v>41.2185</v>
@@ -5151,16 +5220,16 @@
         <v>370</v>
       </c>
       <c r="O92" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>115000</v>
       </c>
       <c r="R92" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5171,10 +5240,10 @@
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G93">
         <v>41.2694</v>
@@ -5189,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="L93" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M93">
         <v>222</v>
@@ -5198,16 +5267,16 @@
         <v>5</v>
       </c>
       <c r="O93" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>1350</v>
       </c>
       <c r="R93" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5218,10 +5287,10 @@
         <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E94" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G94">
         <v>41.314</v>
@@ -5236,7 +5305,7 @@
         <v>9</v>
       </c>
       <c r="L94" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M94">
         <v>62</v>
@@ -5245,16 +5314,16 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>95000</v>
       </c>
       <c r="R94" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5265,10 +5334,10 @@
         <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G95">
         <v>41.32493746716375</v>
@@ -5283,7 +5352,7 @@
         <v>24</v>
       </c>
       <c r="L95" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M95">
         <v>50</v>
@@ -5292,16 +5361,16 @@
         <v>2</v>
       </c>
       <c r="O95" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>145000</v>
       </c>
       <c r="R95" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5312,10 +5381,10 @@
         <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G96">
         <v>41.3137</v>
@@ -5330,7 +5399,7 @@
         <v>25</v>
       </c>
       <c r="L96" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M96">
         <v>50</v>
@@ -5339,16 +5408,16 @@
         <v>2</v>
       </c>
       <c r="O96" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>145000</v>
       </c>
       <c r="R96" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -5359,10 +5428,10 @@
         <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G97">
         <v>41.3214</v>
@@ -5377,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="L97" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M97">
         <v>82</v>
@@ -5386,16 +5455,16 @@
         <v>4</v>
       </c>
       <c r="O97" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>99900</v>
       </c>
       <c r="R97" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -5406,10 +5475,10 @@
         <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G98">
         <v>41.3209</v>
@@ -5424,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="L98" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M98">
         <v>83</v>
@@ -5433,16 +5502,16 @@
         <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>159000</v>
       </c>
       <c r="R98" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -5453,10 +5522,10 @@
         <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E99" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G99">
         <v>41.28704079671137</v>
@@ -5471,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="L99" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M99">
         <v>74</v>
@@ -5480,16 +5549,16 @@
         <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>101000</v>
       </c>
       <c r="R99" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -5500,10 +5569,10 @@
         <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G100">
         <v>41.31507469997834</v>
@@ -5518,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="L100" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M100">
         <v>38</v>
@@ -5527,16 +5596,16 @@
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>49500</v>
       </c>
       <c r="R100" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -5547,10 +5616,10 @@
         <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G101">
         <v>41.22241021525596</v>
@@ -5565,22 +5634,22 @@
         <v>4</v>
       </c>
       <c r="L101" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q101">
         <v>48500</v>
       </c>
       <c r="R101" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -5591,10 +5660,10 @@
         <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G102">
         <v>41.2999</v>
@@ -5609,7 +5678,7 @@
         <v>4</v>
       </c>
       <c r="L102" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M102">
         <v>38</v>
@@ -5618,16 +5687,16 @@
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>53500</v>
       </c>
       <c r="R102" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -5638,10 +5707,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G103">
         <v>41.37210481313281</v>
@@ -5656,22 +5725,22 @@
         <v>4</v>
       </c>
       <c r="L103" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="N103">
         <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>55500</v>
       </c>
       <c r="R103" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -5682,10 +5751,10 @@
         <v>118</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G104">
         <v>41.36952319601681</v>
@@ -5700,7 +5769,7 @@
         <v>5</v>
       </c>
       <c r="L104" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M104">
         <v>112</v>
@@ -5709,16 +5778,16 @@
         <v>5</v>
       </c>
       <c r="O104" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>120000</v>
       </c>
       <c r="R104" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -5729,10 +5798,10 @@
         <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G105">
         <v>41.36171048914736</v>
@@ -5747,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="L105" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M105">
         <v>39</v>
@@ -5756,16 +5825,16 @@
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q105">
         <v>46500</v>
       </c>
       <c r="R105" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -5776,10 +5845,10 @@
         <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G106">
         <v>41.35783199971537</v>
@@ -5794,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="L106" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M106">
         <v>38</v>
@@ -5803,16 +5872,16 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q106">
         <v>44500</v>
       </c>
       <c r="R106" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -5823,7 +5892,7 @@
         <v>121</v>
       </c>
       <c r="C107" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G107">
         <v>41.378</v>
@@ -5835,22 +5904,22 @@
         <v>1.5</v>
       </c>
       <c r="L107" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M107">
         <v>600</v>
       </c>
       <c r="O107" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>160</v>
       </c>
       <c r="R107" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -5861,10 +5930,10 @@
         <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G108">
         <v>41.3669559288242</v>
@@ -5879,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="L108" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M108">
         <v>50</v>
@@ -5888,16 +5957,16 @@
         <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>75000</v>
       </c>
       <c r="R108" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -5908,10 +5977,10 @@
         <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E109" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G109">
         <v>41.32167971117477</v>
@@ -5926,7 +5995,7 @@
         <v>9</v>
       </c>
       <c r="L109" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M109">
         <v>47</v>
@@ -5935,16 +6004,16 @@
         <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>50000</v>
       </c>
       <c r="R109" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -5955,10 +6024,10 @@
         <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E110" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G110">
         <v>41.2759</v>
@@ -5966,29 +6035,29 @@
       <c r="H110">
         <v>69.2426</v>
       </c>
-      <c r="J110" t="s">
-        <v>166</v>
+      <c r="J110">
+        <v>7</v>
       </c>
       <c r="L110" t="s">
-        <v>186</v>
-      </c>
-      <c r="M110" t="s">
-        <v>187</v>
+        <v>200</v>
+      </c>
+      <c r="M110">
+        <v>80</v>
       </c>
       <c r="N110">
         <v>3</v>
       </c>
       <c r="O110" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>1500</v>
       </c>
       <c r="R110" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -5999,7 +6068,7 @@
         <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G111">
         <v>41.3533</v>
@@ -6007,26 +6076,26 @@
       <c r="H111">
         <v>69.283</v>
       </c>
-      <c r="K111" t="s">
-        <v>169</v>
+      <c r="K111">
+        <v>4</v>
       </c>
       <c r="L111" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M111">
         <v>220</v>
       </c>
       <c r="O111" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>268000</v>
       </c>
       <c r="R111" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6037,7 +6106,7 @@
         <v>126</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G112">
         <v>41.1735</v>
@@ -6045,17 +6114,14 @@
       <c r="H112">
         <v>69.2503</v>
       </c>
-      <c r="M112" t="s">
-        <v>188</v>
+      <c r="M112">
+        <v>4000</v>
       </c>
       <c r="O112" t="s">
-        <v>229</v>
-      </c>
-      <c r="P112" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="R112" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -6066,10 +6132,10 @@
         <v>89</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E113" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G113">
         <v>41.38235850015496</v>
@@ -6077,32 +6143,32 @@
       <c r="H113">
         <v>69.29356764619257</v>
       </c>
-      <c r="J113" t="s">
-        <v>167</v>
-      </c>
-      <c r="K113" t="s">
-        <v>167</v>
+      <c r="J113">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
       </c>
       <c r="L113" t="s">
-        <v>186</v>
-      </c>
-      <c r="M113" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="M113">
+        <v>70</v>
       </c>
       <c r="N113">
         <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>71000</v>
       </c>
       <c r="R113" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -6113,10 +6179,10 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E114" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G114">
         <v>41.2049</v>
@@ -6124,32 +6190,32 @@
       <c r="H114">
         <v>69.21850000000001</v>
       </c>
-      <c r="J114" t="s">
-        <v>168</v>
-      </c>
-      <c r="K114" t="s">
-        <v>166</v>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
       </c>
       <c r="L114" t="s">
-        <v>181</v>
-      </c>
-      <c r="M114" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+      <c r="M114">
+        <v>127</v>
       </c>
       <c r="N114">
         <v>4</v>
       </c>
       <c r="O114" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>113000</v>
       </c>
       <c r="R114" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -6160,10 +6226,10 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E115" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G115">
         <v>41.3488</v>
@@ -6171,29 +6237,29 @@
       <c r="H115">
         <v>69.2517</v>
       </c>
-      <c r="J115" t="s">
-        <v>169</v>
-      </c>
-      <c r="K115" t="s">
-        <v>169</v>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>4</v>
       </c>
       <c r="L115" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>38000</v>
       </c>
       <c r="R115" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -6204,10 +6270,10 @@
         <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E116" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G116">
         <v>41.2694</v>
@@ -6215,32 +6281,32 @@
       <c r="H116">
         <v>69.1521</v>
       </c>
-      <c r="J116" t="s">
-        <v>170</v>
-      </c>
-      <c r="K116" t="s">
-        <v>174</v>
+      <c r="J116">
+        <v>6</v>
+      </c>
+      <c r="K116">
+        <v>9</v>
       </c>
       <c r="L116" t="s">
-        <v>186</v>
-      </c>
-      <c r="M116" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="M116">
+        <v>71</v>
       </c>
       <c r="N116">
         <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>70000</v>
       </c>
       <c r="R116" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -6251,10 +6317,10 @@
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E117" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G117">
         <v>41.27566104983438</v>
@@ -6262,32 +6328,32 @@
       <c r="H117">
         <v>69.36506809386924</v>
       </c>
-      <c r="J117" t="s">
-        <v>169</v>
-      </c>
-      <c r="K117" t="s">
-        <v>176</v>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117">
+        <v>11</v>
       </c>
       <c r="L117" t="s">
-        <v>186</v>
-      </c>
-      <c r="M117" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="M117">
+        <v>59</v>
       </c>
       <c r="N117">
         <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>55000</v>
       </c>
       <c r="R117" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -6298,10 +6364,10 @@
         <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E118" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G118">
         <v>41.3360324267066</v>
@@ -6309,32 +6375,32 @@
       <c r="H118">
         <v>69.25167738609497</v>
       </c>
-      <c r="J118" t="s">
-        <v>171</v>
-      </c>
-      <c r="K118" t="s">
-        <v>167</v>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>5</v>
       </c>
       <c r="L118" t="s">
-        <v>182</v>
-      </c>
-      <c r="M118" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="M118">
+        <v>97</v>
       </c>
       <c r="N118">
         <v>5</v>
       </c>
       <c r="O118" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>145000</v>
       </c>
       <c r="R118" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -6345,10 +6411,10 @@
         <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E119" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G119">
         <v>41.2064</v>
@@ -6356,32 +6422,32 @@
       <c r="H119">
         <v>69.22929999999999</v>
       </c>
-      <c r="J119" t="s">
-        <v>169</v>
-      </c>
-      <c r="K119" t="s">
-        <v>169</v>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
       </c>
       <c r="L119" t="s">
-        <v>182</v>
-      </c>
-      <c r="M119" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="M119">
+        <v>69</v>
       </c>
       <c r="N119">
         <v>3</v>
       </c>
       <c r="O119" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>65000</v>
       </c>
       <c r="R119" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -6392,10 +6458,10 @@
         <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G120">
         <v>41.3214</v>
@@ -6403,32 +6469,32 @@
       <c r="H120">
         <v>69.2953</v>
       </c>
-      <c r="J120" t="s">
-        <v>172</v>
-      </c>
-      <c r="K120" t="s">
-        <v>177</v>
+      <c r="J120">
+        <v>13</v>
+      </c>
+      <c r="K120">
+        <v>24</v>
       </c>
       <c r="L120" t="s">
-        <v>181</v>
-      </c>
-      <c r="M120" t="s">
         <v>195</v>
+      </c>
+      <c r="M120">
+        <v>50</v>
       </c>
       <c r="N120">
         <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>145000</v>
       </c>
       <c r="R120" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -6439,7 +6505,7 @@
         <v>132</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G121">
         <v>41.26841243688536</v>
@@ -6451,16 +6517,16 @@
         <v>200</v>
       </c>
       <c r="O121" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>15000</v>
       </c>
       <c r="R121" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -6471,7 +6537,7 @@
         <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G122">
         <v>41.3014</v>
@@ -6479,23 +6545,23 @@
       <c r="H122">
         <v>69.39709999999999</v>
       </c>
-      <c r="K122" t="s">
-        <v>171</v>
+      <c r="K122">
+        <v>1</v>
       </c>
       <c r="M122">
         <v>385</v>
       </c>
       <c r="O122" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>105000</v>
       </c>
       <c r="R122" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -6506,7 +6572,7 @@
         <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G123">
         <v>41.22636068519085</v>
@@ -6514,26 +6580,26 @@
       <c r="H123">
         <v>69.26276078325554</v>
       </c>
-      <c r="K123" t="s">
-        <v>168</v>
+      <c r="K123">
+        <v>2</v>
       </c>
       <c r="L123" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M123">
         <v>450</v>
       </c>
       <c r="O123" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>130000</v>
       </c>
       <c r="R123" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -6544,7 +6610,7 @@
         <v>93</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G124">
         <v>41.3886</v>
@@ -6552,26 +6618,26 @@
       <c r="H124">
         <v>69.2564</v>
       </c>
-      <c r="K124" t="s">
-        <v>168</v>
+      <c r="K124">
+        <v>2</v>
       </c>
       <c r="L124" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M124">
         <v>500</v>
       </c>
       <c r="O124" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>220000</v>
       </c>
       <c r="R124" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -6582,7 +6648,7 @@
         <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G125">
         <v>41.314</v>
@@ -6594,16 +6660,16 @@
         <v>450</v>
       </c>
       <c r="O125" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>260000</v>
       </c>
       <c r="R125" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -6614,7 +6680,7 @@
         <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G126">
         <v>41.3201</v>
@@ -6622,23 +6688,23 @@
       <c r="H126">
         <v>69.1584</v>
       </c>
-      <c r="K126" t="s">
-        <v>171</v>
+      <c r="K126">
+        <v>1</v>
       </c>
       <c r="M126">
         <v>850</v>
       </c>
       <c r="O126" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>350000</v>
       </c>
       <c r="R126" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -6649,7 +6715,7 @@
         <v>107</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G127">
         <v>41.314</v>
@@ -6661,16 +6727,16 @@
         <v>370</v>
       </c>
       <c r="O127" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>115000</v>
       </c>
       <c r="R127" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -6681,7 +6747,7 @@
         <v>100</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G128">
         <v>41.2279</v>
@@ -6689,23 +6755,23 @@
       <c r="H128">
         <v>69.27809999999999</v>
       </c>
-      <c r="K128" t="s">
-        <v>168</v>
+      <c r="K128">
+        <v>2</v>
       </c>
       <c r="M128">
         <v>730</v>
       </c>
       <c r="O128" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>240000</v>
       </c>
       <c r="R128" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -6716,7 +6782,7 @@
         <v>80</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G129">
         <v>41.2793</v>
@@ -6724,26 +6790,26 @@
       <c r="H129">
         <v>69.33580000000001</v>
       </c>
-      <c r="K129" t="s">
-        <v>168</v>
+      <c r="K129">
+        <v>2</v>
       </c>
       <c r="L129" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M129">
         <v>210</v>
       </c>
       <c r="O129" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>158000</v>
       </c>
       <c r="R129" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -6754,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G130">
         <v>41.32989883824209</v>
@@ -6762,26 +6828,26 @@
       <c r="H130">
         <v>69.44639463493169</v>
       </c>
-      <c r="K130" t="s">
-        <v>171</v>
+      <c r="K130">
+        <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M130">
         <v>280</v>
       </c>
       <c r="O130" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>148000</v>
       </c>
       <c r="R130" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -6792,7 +6858,7 @@
         <v>82</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G131">
         <v>41.3491</v>
@@ -6800,26 +6866,26 @@
       <c r="H131">
         <v>69.2311</v>
       </c>
-      <c r="K131" t="s">
-        <v>168</v>
+      <c r="K131">
+        <v>2</v>
       </c>
       <c r="L131" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M131">
         <v>200</v>
       </c>
       <c r="O131" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>125000</v>
       </c>
       <c r="R131" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -6830,10 +6896,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E132" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G132">
         <v>41.36</v>
@@ -6841,32 +6907,32 @@
       <c r="H132">
         <v>69.3661</v>
       </c>
-      <c r="J132" t="s">
-        <v>168</v>
-      </c>
-      <c r="K132" t="s">
-        <v>169</v>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
       </c>
       <c r="L132" t="s">
-        <v>185</v>
-      </c>
-      <c r="M132" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="M132">
+        <v>33</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>46500</v>
       </c>
       <c r="R132" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -6877,10 +6943,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E133" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G133">
         <v>41.3442459577787</v>
@@ -6888,32 +6954,32 @@
       <c r="H133">
         <v>69.23433146433794</v>
       </c>
-      <c r="J133" t="s">
-        <v>173</v>
-      </c>
-      <c r="K133" t="s">
-        <v>166</v>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>7</v>
       </c>
       <c r="L133" t="s">
-        <v>181</v>
-      </c>
-      <c r="M133" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="M133">
+        <v>75</v>
       </c>
       <c r="N133">
         <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>99000</v>
       </c>
       <c r="R133" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -6924,10 +6990,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E134" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G134">
         <v>41.35251114405735</v>
@@ -6935,32 +7001,32 @@
       <c r="H134">
         <v>69.23685279678537</v>
       </c>
-      <c r="J134" t="s">
-        <v>168</v>
-      </c>
-      <c r="K134" t="s">
-        <v>167</v>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
       </c>
       <c r="L134" t="s">
-        <v>182</v>
-      </c>
-      <c r="M134" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="M134">
+        <v>40</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>48500</v>
       </c>
       <c r="R134" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -6971,10 +7037,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E135" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G135">
         <v>41.28965168520277</v>
@@ -6982,32 +7048,32 @@
       <c r="H135">
         <v>69.27538143941857</v>
       </c>
-      <c r="J135" t="s">
-        <v>168</v>
-      </c>
-      <c r="K135" t="s">
-        <v>174</v>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>9</v>
       </c>
       <c r="L135" t="s">
-        <v>182</v>
-      </c>
-      <c r="M135" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="M135">
+        <v>83</v>
       </c>
       <c r="N135">
         <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>120000</v>
       </c>
       <c r="R135" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -7018,10 +7084,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E136" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G136">
         <v>41.3163</v>
@@ -7029,32 +7095,32 @@
       <c r="H136">
         <v>69.3198</v>
       </c>
-      <c r="J136" t="s">
-        <v>170</v>
-      </c>
-      <c r="K136" t="s">
-        <v>174</v>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="K136">
+        <v>9</v>
       </c>
       <c r="L136" t="s">
-        <v>185</v>
-      </c>
-      <c r="M136" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="M136">
+        <v>90</v>
       </c>
       <c r="N136">
         <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>95000</v>
       </c>
       <c r="R136" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -7065,10 +7131,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G137">
         <v>41.3780814953922</v>
@@ -7076,32 +7142,32 @@
       <c r="H137">
         <v>69.30548011391154</v>
       </c>
-      <c r="J137" t="s">
-        <v>173</v>
-      </c>
-      <c r="K137" t="s">
-        <v>167</v>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
       </c>
       <c r="L137" t="s">
-        <v>181</v>
-      </c>
-      <c r="M137" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="M137">
+        <v>45</v>
       </c>
       <c r="N137">
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>54500</v>
       </c>
       <c r="R137" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -7112,7 +7178,7 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G138">
         <v>41.29293013807497</v>
@@ -7124,16 +7190,16 @@
         <v>600</v>
       </c>
       <c r="O138" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>70000</v>
       </c>
       <c r="R138" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -7144,7 +7210,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G139">
         <v>41.36435160330289</v>
@@ -7152,26 +7218,26 @@
       <c r="H139">
         <v>69.32859417157457</v>
       </c>
-      <c r="K139" t="s">
-        <v>168</v>
+      <c r="K139">
+        <v>2</v>
       </c>
       <c r="L139" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M139">
         <v>600</v>
       </c>
       <c r="O139" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>780000</v>
       </c>
       <c r="R139" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -7182,10 +7248,10 @@
         <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G140">
         <v>41.3137</v>
@@ -7193,32 +7259,32 @@
       <c r="H140">
         <v>69.23650000000001</v>
       </c>
-      <c r="J140" t="s">
-        <v>168</v>
-      </c>
-      <c r="K140" t="s">
-        <v>174</v>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>9</v>
       </c>
       <c r="L140" t="s">
-        <v>181</v>
-      </c>
-      <c r="M140" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="M140">
+        <v>62</v>
       </c>
       <c r="N140">
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>95000</v>
       </c>
       <c r="R140" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -7229,10 +7295,10 @@
         <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G141">
         <v>41.3812</v>
@@ -7240,32 +7306,32 @@
       <c r="H141">
         <v>69.29859999999999</v>
       </c>
-      <c r="J141" t="s">
-        <v>173</v>
-      </c>
-      <c r="K141" t="s">
-        <v>169</v>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>4</v>
       </c>
       <c r="L141" t="s">
-        <v>185</v>
-      </c>
-      <c r="M141" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="M141">
+        <v>50</v>
       </c>
       <c r="N141">
         <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>68000</v>
       </c>
       <c r="R141" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -7276,10 +7342,10 @@
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E142" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G142">
         <v>41.3767816773355</v>
@@ -7287,32 +7353,32 @@
       <c r="H142">
         <v>69.2923679550405</v>
       </c>
-      <c r="J142" t="s">
-        <v>168</v>
-      </c>
-      <c r="K142" t="s">
-        <v>169</v>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
       </c>
       <c r="L142" t="s">
-        <v>181</v>
-      </c>
-      <c r="M142" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="M142">
+        <v>38</v>
       </c>
       <c r="N142">
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>54500</v>
       </c>
       <c r="R142" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -7323,10 +7389,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E143" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G143">
         <v>41.3158</v>
@@ -7334,26 +7400,26 @@
       <c r="H143">
         <v>69.2432</v>
       </c>
-      <c r="J143" t="s">
-        <v>173</v>
-      </c>
-      <c r="K143" t="s">
-        <v>166</v>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>7</v>
       </c>
       <c r="L143" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="O143" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>155000</v>
       </c>
       <c r="R143" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -7364,10 +7430,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E144" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G144">
         <v>41.2786</v>
@@ -7375,29 +7441,29 @@
       <c r="H144">
         <v>69.2497</v>
       </c>
-      <c r="J144" t="s">
-        <v>167</v>
-      </c>
-      <c r="K144" t="s">
-        <v>178</v>
+      <c r="J144">
+        <v>5</v>
+      </c>
+      <c r="K144">
+        <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="N144">
         <v>4</v>
       </c>
       <c r="O144" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>160000</v>
       </c>
       <c r="R144" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -7408,10 +7474,10 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G145">
         <v>41.23328132060311</v>
@@ -7419,32 +7485,32 @@
       <c r="H145">
         <v>69.19561562694254</v>
       </c>
-      <c r="J145" t="s">
-        <v>170</v>
-      </c>
-      <c r="K145" t="s">
-        <v>166</v>
+      <c r="J145">
+        <v>6</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
       </c>
       <c r="L145" t="s">
-        <v>185</v>
-      </c>
-      <c r="M145" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="M145">
+        <v>72</v>
       </c>
       <c r="N145">
         <v>3</v>
       </c>
       <c r="O145" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="P145" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>85000</v>
       </c>
       <c r="R145" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -7455,10 +7521,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E146" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G146">
         <v>41.3403</v>
@@ -7466,32 +7532,32 @@
       <c r="H146">
         <v>69.169</v>
       </c>
-      <c r="J146" t="s">
-        <v>168</v>
-      </c>
-      <c r="K146" t="s">
-        <v>169</v>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
       </c>
       <c r="L146" t="s">
-        <v>181</v>
-      </c>
-      <c r="M146" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="M146">
+        <v>70</v>
       </c>
       <c r="N146">
         <v>3</v>
       </c>
       <c r="O146" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>85000</v>
       </c>
       <c r="R146" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -7502,10 +7568,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E147" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G147">
         <v>41.3403</v>
@@ -7513,32 +7579,32 @@
       <c r="H147">
         <v>69.16759999999999</v>
       </c>
-      <c r="J147" t="s">
-        <v>166</v>
-      </c>
-      <c r="K147" t="s">
-        <v>174</v>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>9</v>
       </c>
       <c r="L147" t="s">
-        <v>181</v>
-      </c>
-      <c r="M147" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="M147">
+        <v>83</v>
       </c>
       <c r="N147">
         <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="P147" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>90000</v>
       </c>
       <c r="R147" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -7549,10 +7615,10 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E148" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G148">
         <v>41.2162</v>
@@ -7560,32 +7626,32 @@
       <c r="H148">
         <v>69.1982</v>
       </c>
-      <c r="J148" t="s">
-        <v>170</v>
-      </c>
-      <c r="K148" t="s">
-        <v>166</v>
+      <c r="J148">
+        <v>6</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
       </c>
       <c r="L148" t="s">
-        <v>185</v>
-      </c>
-      <c r="M148" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="M148">
+        <v>75</v>
       </c>
       <c r="N148">
         <v>3</v>
       </c>
       <c r="O148" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>71000</v>
       </c>
       <c r="R148" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -7596,10 +7662,10 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G149">
         <v>41.2962</v>
@@ -7607,32 +7673,32 @@
       <c r="H149">
         <v>69.2149</v>
       </c>
-      <c r="J149" t="s">
-        <v>173</v>
-      </c>
-      <c r="K149" t="s">
-        <v>169</v>
+      <c r="J149">
+        <v>3</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
       </c>
       <c r="L149" t="s">
-        <v>181</v>
-      </c>
-      <c r="M149" t="s">
-        <v>205</v>
+        <v>195</v>
+      </c>
+      <c r="M149">
+        <v>46</v>
       </c>
       <c r="N149">
         <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>68000</v>
       </c>
       <c r="R149" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -7643,10 +7709,10 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G150">
         <v>41.2941</v>
@@ -7654,32 +7720,32 @@
       <c r="H150">
         <v>69.1995</v>
       </c>
-      <c r="J150" t="s">
-        <v>174</v>
-      </c>
-      <c r="K150" t="s">
-        <v>179</v>
+      <c r="J150">
+        <v>9</v>
+      </c>
+      <c r="K150">
+        <v>10</v>
       </c>
       <c r="L150" t="s">
-        <v>181</v>
-      </c>
-      <c r="M150" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="M150">
+        <v>60</v>
       </c>
       <c r="N150">
         <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>85000</v>
       </c>
       <c r="R150" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -7690,10 +7756,10 @@
         <v>111</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E151" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G151">
         <v>41.3209</v>
@@ -7701,32 +7767,32 @@
       <c r="H151">
         <v>69.2944</v>
       </c>
-      <c r="J151" t="s">
-        <v>175</v>
-      </c>
-      <c r="K151" t="s">
-        <v>180</v>
+      <c r="J151">
+        <v>23</v>
+      </c>
+      <c r="K151">
+        <v>25</v>
       </c>
       <c r="L151" t="s">
-        <v>181</v>
-      </c>
-      <c r="M151" t="s">
         <v>195</v>
+      </c>
+      <c r="M151">
+        <v>50</v>
       </c>
       <c r="N151">
         <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>145000</v>
       </c>
       <c r="R151" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -7737,10 +7803,10 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E152" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G152">
         <v>41.368</v>
@@ -7748,32 +7814,32 @@
       <c r="H152">
         <v>69.2897</v>
       </c>
-      <c r="J152" t="s">
-        <v>169</v>
-      </c>
-      <c r="K152" t="s">
-        <v>169</v>
+      <c r="J152">
+        <v>4</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
       </c>
       <c r="L152" t="s">
-        <v>186</v>
-      </c>
-      <c r="M152" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="M152">
+        <v>50</v>
       </c>
       <c r="N152">
         <v>2</v>
       </c>
       <c r="O152" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>60000</v>
       </c>
       <c r="R152" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -7784,10 +7850,10 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E153" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G153">
         <v>41.28876612436</v>
@@ -7795,32 +7861,32 @@
       <c r="H153">
         <v>69.32866743536121</v>
       </c>
-      <c r="J153" t="s">
-        <v>174</v>
-      </c>
-      <c r="K153" t="s">
-        <v>179</v>
+      <c r="J153">
+        <v>9</v>
+      </c>
+      <c r="K153">
+        <v>10</v>
       </c>
       <c r="L153" t="s">
-        <v>182</v>
-      </c>
-      <c r="M153" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="M153">
+        <v>96</v>
       </c>
       <c r="N153">
         <v>3</v>
       </c>
       <c r="O153" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="P153" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>88000</v>
       </c>
       <c r="R153" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -7831,10 +7897,10 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E154" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G154">
         <v>41.3681</v>
@@ -7842,32 +7908,32 @@
       <c r="H154">
         <v>69.215</v>
       </c>
-      <c r="J154" t="s">
-        <v>167</v>
-      </c>
-      <c r="K154" t="s">
-        <v>174</v>
+      <c r="J154">
+        <v>5</v>
+      </c>
+      <c r="K154">
+        <v>9</v>
       </c>
       <c r="L154" t="s">
-        <v>182</v>
-      </c>
-      <c r="M154" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="M154">
+        <v>65</v>
       </c>
       <c r="N154">
         <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P154" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>68500</v>
       </c>
       <c r="R154" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -7878,10 +7944,10 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G155">
         <v>41.33125655076994</v>
@@ -7889,32 +7955,32 @@
       <c r="H155">
         <v>69.24889209691119</v>
       </c>
-      <c r="J155" t="s">
-        <v>171</v>
-      </c>
-      <c r="K155" t="s">
-        <v>174</v>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>9</v>
       </c>
       <c r="L155" t="s">
-        <v>181</v>
-      </c>
-      <c r="M155" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="M155">
+        <v>75</v>
       </c>
       <c r="N155">
         <v>3</v>
       </c>
       <c r="O155" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>116000</v>
       </c>
       <c r="R155" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -7925,10 +7991,10 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E156" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G156">
         <v>41.3618</v>
@@ -7936,32 +8002,32 @@
       <c r="H156">
         <v>69.288</v>
       </c>
-      <c r="J156" t="s">
-        <v>168</v>
-      </c>
-      <c r="K156" t="s">
-        <v>169</v>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>4</v>
       </c>
       <c r="L156" t="s">
-        <v>186</v>
-      </c>
-      <c r="M156" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="M156">
+        <v>54</v>
       </c>
       <c r="N156">
         <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P156" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>63000</v>
       </c>
       <c r="R156" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -7972,10 +8038,10 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E157" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G157">
         <v>41.27696314420075</v>
@@ -7983,32 +8049,32 @@
       <c r="H157">
         <v>69.2562228711657</v>
       </c>
-      <c r="J157" t="s">
-        <v>170</v>
-      </c>
-      <c r="K157" t="s">
-        <v>174</v>
+      <c r="J157">
+        <v>6</v>
+      </c>
+      <c r="K157">
+        <v>9</v>
       </c>
       <c r="L157" t="s">
-        <v>181</v>
-      </c>
-      <c r="M157" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="M157">
+        <v>60</v>
       </c>
       <c r="N157">
         <v>2</v>
       </c>
       <c r="O157" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P157" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>85000</v>
       </c>
       <c r="R157" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -8019,7 +8085,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G158">
         <v>41.3009</v>
@@ -8027,26 +8093,26 @@
       <c r="H158">
         <v>69.25790000000001</v>
       </c>
-      <c r="K158" t="s">
-        <v>173</v>
+      <c r="K158">
+        <v>3</v>
       </c>
       <c r="L158" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M158">
         <v>320</v>
       </c>
       <c r="O158" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P158" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>560000</v>
       </c>
       <c r="R158" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -8057,7 +8123,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G159">
         <v>41.29780682117148</v>
@@ -8069,16 +8135,16 @@
         <v>400</v>
       </c>
       <c r="O159" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P159" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>210000</v>
       </c>
       <c r="R159" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -8089,10 +8155,10 @@
         <v>151</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E160" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G160">
         <v>41.3698569676036</v>
@@ -8100,32 +8166,32 @@
       <c r="H160">
         <v>69.27124116439958</v>
       </c>
-      <c r="J160" t="s">
-        <v>169</v>
-      </c>
-      <c r="K160" t="s">
-        <v>169</v>
+      <c r="J160">
+        <v>4</v>
+      </c>
+      <c r="K160">
+        <v>4</v>
       </c>
       <c r="L160" t="s">
-        <v>181</v>
-      </c>
-      <c r="M160" t="s">
-        <v>187</v>
+        <v>195</v>
+      </c>
+      <c r="M160">
+        <v>80</v>
       </c>
       <c r="N160">
         <v>4</v>
       </c>
       <c r="O160" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P160" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>86000</v>
       </c>
       <c r="R160" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -8136,10 +8202,10 @@
         <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E161" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G161">
         <v>41.3685749038164</v>
@@ -8147,32 +8213,32 @@
       <c r="H161">
         <v>69.26477134550976</v>
       </c>
-      <c r="J161" t="s">
-        <v>168</v>
-      </c>
-      <c r="K161" t="s">
-        <v>169</v>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
       </c>
       <c r="L161" t="s">
-        <v>181</v>
-      </c>
-      <c r="M161" t="s">
-        <v>208</v>
+        <v>195</v>
+      </c>
+      <c r="M161">
+        <v>65</v>
       </c>
       <c r="N161">
         <v>3</v>
       </c>
       <c r="O161" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P161" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>80000</v>
       </c>
       <c r="R161" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -8183,7 +8249,7 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G162">
         <v>41.3283</v>
@@ -8191,26 +8257,26 @@
       <c r="H162">
         <v>69.3582</v>
       </c>
-      <c r="K162" t="s">
-        <v>173</v>
+      <c r="K162">
+        <v>3</v>
       </c>
       <c r="L162" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M162">
         <v>250</v>
       </c>
       <c r="O162" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P162" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>175000</v>
       </c>
       <c r="R162" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -8221,10 +8287,10 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E163" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G163">
         <v>41.25935602008965</v>
@@ -8232,32 +8298,32 @@
       <c r="H163">
         <v>69.15878213829029</v>
       </c>
-      <c r="J163" t="s">
-        <v>169</v>
-      </c>
-      <c r="K163" t="s">
-        <v>169</v>
+      <c r="J163">
+        <v>4</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
       </c>
       <c r="L163" t="s">
-        <v>182</v>
-      </c>
-      <c r="M163" t="s">
-        <v>210</v>
+        <v>196</v>
+      </c>
+      <c r="M163">
+        <v>84</v>
       </c>
       <c r="N163">
         <v>4</v>
       </c>
       <c r="O163" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P163" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>115000</v>
       </c>
       <c r="R163" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -8268,7 +8334,7 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G164">
         <v>41.2862</v>
@@ -8276,26 +8342,26 @@
       <c r="H164">
         <v>69.29730000000001</v>
       </c>
-      <c r="K164" t="s">
-        <v>171</v>
+      <c r="K164">
+        <v>1</v>
       </c>
       <c r="L164" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M164">
         <v>310</v>
       </c>
       <c r="O164" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P164" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q164">
         <v>200000</v>
       </c>
       <c r="R164" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -8306,7 +8372,7 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G165">
         <v>41.233</v>
@@ -8314,26 +8380,2360 @@
       <c r="H165">
         <v>69.1904</v>
       </c>
-      <c r="K165" t="s">
-        <v>171</v>
+      <c r="K165">
+        <v>1</v>
       </c>
       <c r="L165" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M165">
         <v>170</v>
       </c>
       <c r="O165" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="P165" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>185000</v>
       </c>
       <c r="R165" t="s">
-        <v>246</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E166" t="s">
+        <v>184</v>
+      </c>
+      <c r="G166">
+        <v>41.22261729483951</v>
+      </c>
+      <c r="H166">
+        <v>69.21141248098232</v>
+      </c>
+      <c r="J166" t="s">
+        <v>186</v>
+      </c>
+      <c r="K166" t="s">
+        <v>186</v>
+      </c>
+      <c r="L166" t="s">
+        <v>195</v>
+      </c>
+      <c r="M166" t="s">
+        <v>201</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>270</v>
+      </c>
+      <c r="P166" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q166">
+        <v>85000</v>
+      </c>
+      <c r="R166" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167" t="s">
+        <v>184</v>
+      </c>
+      <c r="G167">
+        <v>41.2064</v>
+      </c>
+      <c r="H167">
+        <v>69.22929999999999</v>
+      </c>
+      <c r="J167" t="s">
+        <v>187</v>
+      </c>
+      <c r="K167" t="s">
+        <v>187</v>
+      </c>
+      <c r="L167" t="s">
+        <v>196</v>
+      </c>
+      <c r="M167" t="s">
+        <v>202</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>254</v>
+      </c>
+      <c r="P167" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q167">
+        <v>65000</v>
+      </c>
+      <c r="R167" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>125</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168">
+        <v>41.3533</v>
+      </c>
+      <c r="H168">
+        <v>69.283</v>
+      </c>
+      <c r="K168" t="s">
+        <v>187</v>
+      </c>
+      <c r="L168" t="s">
+        <v>200</v>
+      </c>
+      <c r="M168">
+        <v>220</v>
+      </c>
+      <c r="O168" t="s">
+        <v>264</v>
+      </c>
+      <c r="P168" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q168">
+        <v>268000</v>
+      </c>
+      <c r="R168" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="G169">
+        <v>41.1735</v>
+      </c>
+      <c r="H169">
+        <v>69.2503</v>
+      </c>
+      <c r="M169" t="s">
+        <v>203</v>
+      </c>
+      <c r="O169" t="s">
+        <v>264</v>
+      </c>
+      <c r="P169" t="s">
+        <v>276</v>
+      </c>
+      <c r="R169" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170" t="s">
+        <v>182</v>
+      </c>
+      <c r="E170" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170">
+        <v>41.33125655076994</v>
+      </c>
+      <c r="H170">
+        <v>69.24889209691119</v>
+      </c>
+      <c r="J170" t="s">
+        <v>188</v>
+      </c>
+      <c r="K170" t="s">
+        <v>186</v>
+      </c>
+      <c r="L170" t="s">
+        <v>195</v>
+      </c>
+      <c r="M170" t="s">
+        <v>204</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>264</v>
+      </c>
+      <c r="P170" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q170">
+        <v>116000</v>
+      </c>
+      <c r="R170" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" t="s">
+        <v>185</v>
+      </c>
+      <c r="G171">
+        <v>41.23124325865302</v>
+      </c>
+      <c r="H171">
+        <v>69.23688262926018</v>
+      </c>
+      <c r="J171" t="s">
+        <v>189</v>
+      </c>
+      <c r="L171" t="s">
+        <v>200</v>
+      </c>
+      <c r="M171" t="s">
+        <v>205</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>271</v>
+      </c>
+      <c r="P171" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q171">
+        <v>38500</v>
+      </c>
+      <c r="R171" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>147</v>
+      </c>
+      <c r="C172" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" t="s">
+        <v>185</v>
+      </c>
+      <c r="G172">
+        <v>41.2162</v>
+      </c>
+      <c r="H172">
+        <v>69.1982</v>
+      </c>
+      <c r="J172" t="s">
+        <v>190</v>
+      </c>
+      <c r="K172" t="s">
+        <v>192</v>
+      </c>
+      <c r="L172" t="s">
+        <v>199</v>
+      </c>
+      <c r="M172" t="s">
+        <v>204</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>263</v>
+      </c>
+      <c r="P172" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q172">
+        <v>71000</v>
+      </c>
+      <c r="R172" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173" t="s">
+        <v>184</v>
+      </c>
+      <c r="G173">
+        <v>41.3163</v>
+      </c>
+      <c r="H173">
+        <v>69.3198</v>
+      </c>
+      <c r="J173" t="s">
+        <v>190</v>
+      </c>
+      <c r="K173" t="s">
+        <v>186</v>
+      </c>
+      <c r="L173" t="s">
+        <v>199</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>263</v>
+      </c>
+      <c r="P173" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q173">
+        <v>95000</v>
+      </c>
+      <c r="R173" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" t="s">
+        <v>182</v>
+      </c>
+      <c r="E174" t="s">
+        <v>184</v>
+      </c>
+      <c r="G174">
+        <v>41.3780814953922</v>
+      </c>
+      <c r="H174">
+        <v>69.30548011391154</v>
+      </c>
+      <c r="J174" t="s">
+        <v>191</v>
+      </c>
+      <c r="K174" t="s">
+        <v>193</v>
+      </c>
+      <c r="L174" t="s">
+        <v>195</v>
+      </c>
+      <c r="M174" t="s">
+        <v>207</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>265</v>
+      </c>
+      <c r="P174" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q174">
+        <v>54500</v>
+      </c>
+      <c r="R174" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175" t="s">
+        <v>184</v>
+      </c>
+      <c r="G175">
+        <v>41.35251114405735</v>
+      </c>
+      <c r="H175">
+        <v>69.23685279678537</v>
+      </c>
+      <c r="J175" t="s">
+        <v>189</v>
+      </c>
+      <c r="K175" t="s">
+        <v>193</v>
+      </c>
+      <c r="L175" t="s">
+        <v>196</v>
+      </c>
+      <c r="M175" t="s">
+        <v>208</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>264</v>
+      </c>
+      <c r="P175" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q175">
+        <v>48500</v>
+      </c>
+      <c r="R175" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>93</v>
+      </c>
+      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+      <c r="G176">
+        <v>41.3886</v>
+      </c>
+      <c r="H176">
+        <v>69.2564</v>
+      </c>
+      <c r="K176" t="s">
+        <v>189</v>
+      </c>
+      <c r="L176" t="s">
+        <v>200</v>
+      </c>
+      <c r="M176">
+        <v>500</v>
+      </c>
+      <c r="O176" t="s">
+        <v>245</v>
+      </c>
+      <c r="P176" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q176">
+        <v>220000</v>
+      </c>
+      <c r="R176" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>107</v>
+      </c>
+      <c r="C177" t="s">
+        <v>183</v>
+      </c>
+      <c r="G177">
+        <v>41.314</v>
+      </c>
+      <c r="H177">
+        <v>69.2229</v>
+      </c>
+      <c r="M177">
+        <v>370</v>
+      </c>
+      <c r="O177" t="s">
+        <v>248</v>
+      </c>
+      <c r="P177" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q177">
+        <v>115000</v>
+      </c>
+      <c r="R177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="G178">
+        <v>41.2279</v>
+      </c>
+      <c r="H178">
+        <v>69.27809999999999</v>
+      </c>
+      <c r="K178" t="s">
+        <v>189</v>
+      </c>
+      <c r="M178">
+        <v>730</v>
+      </c>
+      <c r="O178" t="s">
+        <v>252</v>
+      </c>
+      <c r="P178" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q178">
+        <v>240000</v>
+      </c>
+      <c r="R178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" t="s">
+        <v>183</v>
+      </c>
+      <c r="G179">
+        <v>41.2793</v>
+      </c>
+      <c r="H179">
+        <v>69.33580000000001</v>
+      </c>
+      <c r="K179" t="s">
+        <v>189</v>
+      </c>
+      <c r="L179" t="s">
+        <v>200</v>
+      </c>
+      <c r="M179">
+        <v>210</v>
+      </c>
+      <c r="O179" t="s">
+        <v>247</v>
+      </c>
+      <c r="P179" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q179">
+        <v>158000</v>
+      </c>
+      <c r="R179" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>81</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+      <c r="G180">
+        <v>41.32989883824209</v>
+      </c>
+      <c r="H180">
+        <v>69.44639463493169</v>
+      </c>
+      <c r="K180" t="s">
+        <v>188</v>
+      </c>
+      <c r="L180" t="s">
+        <v>195</v>
+      </c>
+      <c r="M180">
+        <v>280</v>
+      </c>
+      <c r="O180" t="s">
+        <v>248</v>
+      </c>
+      <c r="P180" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q180">
+        <v>148000</v>
+      </c>
+      <c r="R180" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+      <c r="G181">
+        <v>41.3491</v>
+      </c>
+      <c r="H181">
+        <v>69.2311</v>
+      </c>
+      <c r="K181" t="s">
+        <v>189</v>
+      </c>
+      <c r="L181" t="s">
+        <v>195</v>
+      </c>
+      <c r="M181">
+        <v>200</v>
+      </c>
+      <c r="O181" t="s">
+        <v>253</v>
+      </c>
+      <c r="P181" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q181">
+        <v>125000</v>
+      </c>
+      <c r="R181" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="G182">
+        <v>41.36435160330289</v>
+      </c>
+      <c r="H182">
+        <v>69.32859417157457</v>
+      </c>
+      <c r="K182" t="s">
+        <v>189</v>
+      </c>
+      <c r="L182" t="s">
+        <v>199</v>
+      </c>
+      <c r="M182">
+        <v>600</v>
+      </c>
+      <c r="O182" t="s">
+        <v>269</v>
+      </c>
+      <c r="P182" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q182">
+        <v>780000</v>
+      </c>
+      <c r="R182" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" t="s">
+        <v>184</v>
+      </c>
+      <c r="G183">
+        <v>41.3137</v>
+      </c>
+      <c r="H183">
+        <v>69.23650000000001</v>
+      </c>
+      <c r="J183" t="s">
+        <v>189</v>
+      </c>
+      <c r="K183" t="s">
+        <v>186</v>
+      </c>
+      <c r="L183" t="s">
+        <v>195</v>
+      </c>
+      <c r="M183" t="s">
+        <v>209</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>245</v>
+      </c>
+      <c r="P183" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q183">
+        <v>95000</v>
+      </c>
+      <c r="R183" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" t="s">
+        <v>184</v>
+      </c>
+      <c r="G184">
+        <v>41.3618</v>
+      </c>
+      <c r="H184">
+        <v>69.288</v>
+      </c>
+      <c r="J184" t="s">
+        <v>189</v>
+      </c>
+      <c r="K184" t="s">
+        <v>187</v>
+      </c>
+      <c r="L184" t="s">
+        <v>200</v>
+      </c>
+      <c r="M184" t="s">
+        <v>210</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>265</v>
+      </c>
+      <c r="P184" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q184">
+        <v>63000</v>
+      </c>
+      <c r="R184" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" t="s">
+        <v>183</v>
+      </c>
+      <c r="G185">
+        <v>41.29293013807497</v>
+      </c>
+      <c r="H185">
+        <v>69.34624470043725</v>
+      </c>
+      <c r="M185">
+        <v>600</v>
+      </c>
+      <c r="O185" t="s">
+        <v>272</v>
+      </c>
+      <c r="P185" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q185">
+        <v>70000</v>
+      </c>
+      <c r="R185" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" t="s">
+        <v>183</v>
+      </c>
+      <c r="E186" t="s">
+        <v>185</v>
+      </c>
+      <c r="G186">
+        <v>41.3158</v>
+      </c>
+      <c r="H186">
+        <v>69.2432</v>
+      </c>
+      <c r="J186" t="s">
+        <v>191</v>
+      </c>
+      <c r="K186" t="s">
+        <v>192</v>
+      </c>
+      <c r="L186" t="s">
+        <v>198</v>
+      </c>
+      <c r="O186" t="s">
+        <v>273</v>
+      </c>
+      <c r="P186" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q186">
+        <v>155000</v>
+      </c>
+      <c r="R186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" t="s">
+        <v>151</v>
+      </c>
+      <c r="C187" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" t="s">
+        <v>185</v>
+      </c>
+      <c r="G187">
+        <v>41.28876612436</v>
+      </c>
+      <c r="H187">
+        <v>69.32866743536121</v>
+      </c>
+      <c r="J187" t="s">
+        <v>186</v>
+      </c>
+      <c r="K187" t="s">
+        <v>194</v>
+      </c>
+      <c r="L187" t="s">
+        <v>196</v>
+      </c>
+      <c r="M187" t="s">
+        <v>211</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>264</v>
+      </c>
+      <c r="P187" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q187">
+        <v>88000</v>
+      </c>
+      <c r="R187" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" t="s">
+        <v>185</v>
+      </c>
+      <c r="G188">
+        <v>41.3442459577787</v>
+      </c>
+      <c r="H188">
+        <v>69.23433146433794</v>
+      </c>
+      <c r="J188" t="s">
+        <v>191</v>
+      </c>
+      <c r="K188" t="s">
+        <v>192</v>
+      </c>
+      <c r="L188" t="s">
+        <v>195</v>
+      </c>
+      <c r="M188" t="s">
+        <v>204</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>260</v>
+      </c>
+      <c r="P188" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q188">
+        <v>99000</v>
+      </c>
+      <c r="R188" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" t="s">
+        <v>184</v>
+      </c>
+      <c r="G189">
+        <v>41.3714</v>
+      </c>
+      <c r="H189">
+        <v>69.31699999999999</v>
+      </c>
+      <c r="J189" t="s">
+        <v>187</v>
+      </c>
+      <c r="K189" t="s">
+        <v>193</v>
+      </c>
+      <c r="L189" t="s">
+        <v>199</v>
+      </c>
+      <c r="M189" t="s">
+        <v>212</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>271</v>
+      </c>
+      <c r="P189" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q189">
+        <v>66000</v>
+      </c>
+      <c r="R189" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" t="s">
+        <v>184</v>
+      </c>
+      <c r="G190">
+        <v>41.28965168520277</v>
+      </c>
+      <c r="H190">
+        <v>69.27538143941857</v>
+      </c>
+      <c r="J190" t="s">
+        <v>189</v>
+      </c>
+      <c r="K190" t="s">
+        <v>186</v>
+      </c>
+      <c r="L190" t="s">
+        <v>196</v>
+      </c>
+      <c r="M190" t="s">
+        <v>213</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>260</v>
+      </c>
+      <c r="P190" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q190">
+        <v>120000</v>
+      </c>
+      <c r="R190" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191">
+        <v>41.2759</v>
+      </c>
+      <c r="H191">
+        <v>69.2426</v>
+      </c>
+      <c r="J191" t="s">
+        <v>192</v>
+      </c>
+      <c r="L191" t="s">
+        <v>200</v>
+      </c>
+      <c r="M191" t="s">
+        <v>214</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>264</v>
+      </c>
+      <c r="P191" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q191">
+        <v>1500</v>
+      </c>
+      <c r="R191" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" t="s">
+        <v>182</v>
+      </c>
+      <c r="E192" t="s">
+        <v>184</v>
+      </c>
+      <c r="G192">
+        <v>41.2962</v>
+      </c>
+      <c r="H192">
+        <v>69.2149</v>
+      </c>
+      <c r="J192" t="s">
+        <v>191</v>
+      </c>
+      <c r="K192" t="s">
+        <v>187</v>
+      </c>
+      <c r="L192" t="s">
+        <v>195</v>
+      </c>
+      <c r="M192" t="s">
+        <v>215</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>274</v>
+      </c>
+      <c r="P192" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q192">
+        <v>68000</v>
+      </c>
+      <c r="R192" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>149</v>
+      </c>
+      <c r="C193" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" t="s">
+        <v>185</v>
+      </c>
+      <c r="G193">
+        <v>41.2941</v>
+      </c>
+      <c r="H193">
+        <v>69.1995</v>
+      </c>
+      <c r="J193" t="s">
+        <v>186</v>
+      </c>
+      <c r="K193" t="s">
+        <v>194</v>
+      </c>
+      <c r="L193" t="s">
+        <v>195</v>
+      </c>
+      <c r="M193" t="s">
+        <v>216</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>254</v>
+      </c>
+      <c r="P193" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q193">
+        <v>85000</v>
+      </c>
+      <c r="R193" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" t="s">
+        <v>182</v>
+      </c>
+      <c r="E194" t="s">
+        <v>184</v>
+      </c>
+      <c r="G194">
+        <v>41.3812</v>
+      </c>
+      <c r="H194">
+        <v>69.29859999999999</v>
+      </c>
+      <c r="J194" t="s">
+        <v>191</v>
+      </c>
+      <c r="K194" t="s">
+        <v>187</v>
+      </c>
+      <c r="L194" t="s">
+        <v>199</v>
+      </c>
+      <c r="M194" t="s">
+        <v>217</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>265</v>
+      </c>
+      <c r="P194" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q194">
+        <v>68000</v>
+      </c>
+      <c r="R194" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" t="s">
+        <v>184</v>
+      </c>
+      <c r="G195">
+        <v>41.368</v>
+      </c>
+      <c r="H195">
+        <v>69.2897</v>
+      </c>
+      <c r="J195" t="s">
+        <v>187</v>
+      </c>
+      <c r="K195" t="s">
+        <v>187</v>
+      </c>
+      <c r="L195" t="s">
+        <v>200</v>
+      </c>
+      <c r="M195" t="s">
+        <v>217</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>264</v>
+      </c>
+      <c r="P195" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q195">
+        <v>60000</v>
+      </c>
+      <c r="R195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" t="s">
+        <v>182</v>
+      </c>
+      <c r="E196" t="s">
+        <v>184</v>
+      </c>
+      <c r="G196">
+        <v>41.3715</v>
+      </c>
+      <c r="H196">
+        <v>69.2685</v>
+      </c>
+      <c r="J196" t="s">
+        <v>188</v>
+      </c>
+      <c r="K196" t="s">
+        <v>187</v>
+      </c>
+      <c r="L196" t="s">
+        <v>199</v>
+      </c>
+      <c r="M196" t="s">
+        <v>218</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>271</v>
+      </c>
+      <c r="P196" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q196">
+        <v>99000</v>
+      </c>
+      <c r="R196" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" t="s">
+        <v>182</v>
+      </c>
+      <c r="E197" t="s">
+        <v>184</v>
+      </c>
+      <c r="G197">
+        <v>41.2694</v>
+      </c>
+      <c r="H197">
+        <v>69.1521</v>
+      </c>
+      <c r="J197" t="s">
+        <v>190</v>
+      </c>
+      <c r="K197" t="s">
+        <v>186</v>
+      </c>
+      <c r="L197" t="s">
+        <v>200</v>
+      </c>
+      <c r="M197" t="s">
+        <v>219</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>268</v>
+      </c>
+      <c r="P197" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q197">
+        <v>70000</v>
+      </c>
+      <c r="R197" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>145</v>
+      </c>
+      <c r="C198" t="s">
+        <v>182</v>
+      </c>
+      <c r="E198" t="s">
+        <v>184</v>
+      </c>
+      <c r="G198">
+        <v>41.27566104983438</v>
+      </c>
+      <c r="H198">
+        <v>69.36506809386924</v>
+      </c>
+      <c r="J198" t="s">
+        <v>189</v>
+      </c>
+      <c r="K198" t="s">
+        <v>187</v>
+      </c>
+      <c r="L198" t="s">
+        <v>195</v>
+      </c>
+      <c r="M198" t="s">
+        <v>220</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>263</v>
+      </c>
+      <c r="P198" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q198">
+        <v>85000</v>
+      </c>
+      <c r="R198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" t="s">
+        <v>184</v>
+      </c>
+      <c r="G199">
+        <v>41.3403</v>
+      </c>
+      <c r="H199">
+        <v>69.169</v>
+      </c>
+      <c r="J199" t="s">
+        <v>189</v>
+      </c>
+      <c r="K199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L199" t="s">
+        <v>199</v>
+      </c>
+      <c r="M199" t="s">
+        <v>221</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>263</v>
+      </c>
+      <c r="P199" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q199">
+        <v>46500</v>
+      </c>
+      <c r="R199" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>130</v>
+      </c>
+      <c r="C200" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" t="s">
+        <v>184</v>
+      </c>
+      <c r="G200">
+        <v>41.314</v>
+      </c>
+      <c r="H200">
+        <v>69.19159999999999</v>
+      </c>
+      <c r="J200" t="s">
+        <v>188</v>
+      </c>
+      <c r="K200" t="s">
+        <v>193</v>
+      </c>
+      <c r="L200" t="s">
+        <v>196</v>
+      </c>
+      <c r="M200" t="s">
+        <v>222</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>248</v>
+      </c>
+      <c r="P200" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q200">
+        <v>145000</v>
+      </c>
+      <c r="R200" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>146</v>
+      </c>
+      <c r="C201" t="s">
+        <v>182</v>
+      </c>
+      <c r="E201" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201">
+        <v>41.36</v>
+      </c>
+      <c r="H201">
+        <v>69.3661</v>
+      </c>
+      <c r="J201" t="s">
+        <v>192</v>
+      </c>
+      <c r="K201" t="s">
+        <v>186</v>
+      </c>
+      <c r="L201" t="s">
+        <v>195</v>
+      </c>
+      <c r="M201" t="s">
+        <v>213</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>263</v>
+      </c>
+      <c r="P201" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q201">
+        <v>90000</v>
+      </c>
+      <c r="R201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" t="s">
+        <v>182</v>
+      </c>
+      <c r="E202" t="s">
+        <v>184</v>
+      </c>
+      <c r="G202">
+        <v>41.3360324267066</v>
+      </c>
+      <c r="H202">
+        <v>69.25167738609497</v>
+      </c>
+      <c r="J202" t="s">
+        <v>193</v>
+      </c>
+      <c r="K202" t="s">
+        <v>193</v>
+      </c>
+      <c r="L202" t="s">
+        <v>200</v>
+      </c>
+      <c r="M202" t="s">
+        <v>220</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>263</v>
+      </c>
+      <c r="P202" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q202">
+        <v>71000</v>
+      </c>
+      <c r="R202" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203">
+        <v>41.3403</v>
+      </c>
+      <c r="H203">
+        <v>69.16759999999999</v>
+      </c>
+      <c r="J203" t="s">
+        <v>190</v>
+      </c>
+      <c r="K203" t="s">
+        <v>192</v>
+      </c>
+      <c r="L203" t="s">
+        <v>199</v>
+      </c>
+      <c r="M203" t="s">
+        <v>223</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>263</v>
+      </c>
+      <c r="P203" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q203">
+        <v>85000</v>
+      </c>
+      <c r="R203" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" t="s">
+        <v>183</v>
+      </c>
+      <c r="G204">
+        <v>41.38235850015496</v>
+      </c>
+      <c r="H204">
+        <v>69.29356764619257</v>
+      </c>
+      <c r="K204" t="s">
+        <v>189</v>
+      </c>
+      <c r="L204" t="s">
+        <v>195</v>
+      </c>
+      <c r="M204">
+        <v>13500</v>
+      </c>
+      <c r="O204" t="s">
+        <v>259</v>
+      </c>
+      <c r="P204" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q204">
+        <v>130000</v>
+      </c>
+      <c r="R204" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>167</v>
+      </c>
+      <c r="C205" t="s">
+        <v>182</v>
+      </c>
+      <c r="E205" t="s">
+        <v>185</v>
+      </c>
+      <c r="G205">
+        <v>41.23328132060311</v>
+      </c>
+      <c r="H205">
+        <v>69.19561562694254</v>
+      </c>
+      <c r="J205" t="s">
+        <v>187</v>
+      </c>
+      <c r="K205" t="s">
+        <v>193</v>
+      </c>
+      <c r="L205" t="s">
+        <v>195</v>
+      </c>
+      <c r="M205" t="s">
+        <v>224</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>273</v>
+      </c>
+      <c r="P205" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q205">
+        <v>66000</v>
+      </c>
+      <c r="R205" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" t="s">
+        <v>183</v>
+      </c>
+      <c r="G206">
+        <v>41.27882658624674</v>
+      </c>
+      <c r="H206">
+        <v>69.27166523563218</v>
+      </c>
+      <c r="K206" t="s">
+        <v>189</v>
+      </c>
+      <c r="L206" t="s">
+        <v>196</v>
+      </c>
+      <c r="M206">
+        <v>400</v>
+      </c>
+      <c r="O206" t="s">
+        <v>270</v>
+      </c>
+      <c r="P206" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q206">
+        <v>480000</v>
+      </c>
+      <c r="R206" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" t="s">
+        <v>185</v>
+      </c>
+      <c r="G207">
+        <v>41.3411</v>
+      </c>
+      <c r="H207">
+        <v>69.17270000000001</v>
+      </c>
+      <c r="J207" t="s">
+        <v>189</v>
+      </c>
+      <c r="K207" t="s">
+        <v>192</v>
+      </c>
+      <c r="L207" t="s">
+        <v>196</v>
+      </c>
+      <c r="M207" t="s">
+        <v>217</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>270</v>
+      </c>
+      <c r="P207" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q207">
+        <v>57000</v>
+      </c>
+      <c r="R207" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>170</v>
+      </c>
+      <c r="C208" t="s">
+        <v>182</v>
+      </c>
+      <c r="E208" t="s">
+        <v>184</v>
+      </c>
+      <c r="G208">
+        <v>41.33330621978892</v>
+      </c>
+      <c r="H208">
+        <v>69.30045911866785</v>
+      </c>
+      <c r="J208" t="s">
+        <v>188</v>
+      </c>
+      <c r="K208" t="s">
+        <v>193</v>
+      </c>
+      <c r="L208" t="s">
+        <v>195</v>
+      </c>
+      <c r="M208" t="s">
+        <v>225</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>270</v>
+      </c>
+      <c r="P208" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q208">
+        <v>130000</v>
+      </c>
+      <c r="R208" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>171</v>
+      </c>
+      <c r="C209" t="s">
+        <v>183</v>
+      </c>
+      <c r="G209">
+        <v>41.23079921179679</v>
+      </c>
+      <c r="H209">
+        <v>69.20970810525944</v>
+      </c>
+      <c r="M209">
+        <v>800</v>
+      </c>
+      <c r="O209" t="s">
+        <v>270</v>
+      </c>
+      <c r="P209" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q209">
+        <v>250000</v>
+      </c>
+      <c r="R209" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
+      <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>172</v>
+      </c>
+      <c r="C210" t="s">
+        <v>182</v>
+      </c>
+      <c r="E210" t="s">
+        <v>184</v>
+      </c>
+      <c r="G210">
+        <v>41.2122</v>
+      </c>
+      <c r="H210">
+        <v>69.2256</v>
+      </c>
+      <c r="J210" t="s">
+        <v>191</v>
+      </c>
+      <c r="K210" t="s">
+        <v>187</v>
+      </c>
+      <c r="L210" t="s">
+        <v>195</v>
+      </c>
+      <c r="M210" t="s">
+        <v>221</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>270</v>
+      </c>
+      <c r="P210" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q210">
+        <v>52000</v>
+      </c>
+      <c r="R210" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>173</v>
+      </c>
+      <c r="C211" t="s">
+        <v>182</v>
+      </c>
+      <c r="E211" t="s">
+        <v>184</v>
+      </c>
+      <c r="G211">
+        <v>41.3562</v>
+      </c>
+      <c r="H211">
+        <v>69.3537</v>
+      </c>
+      <c r="J211" t="s">
+        <v>187</v>
+      </c>
+      <c r="K211" t="s">
+        <v>187</v>
+      </c>
+      <c r="L211" t="s">
+        <v>196</v>
+      </c>
+      <c r="M211" t="s">
+        <v>221</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>270</v>
+      </c>
+      <c r="P211" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q211">
+        <v>46500</v>
+      </c>
+      <c r="R211" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
+      <c r="A212" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" t="s">
+        <v>182</v>
+      </c>
+      <c r="E212" t="s">
+        <v>184</v>
+      </c>
+      <c r="G212">
+        <v>41.28556623899862</v>
+      </c>
+      <c r="H212">
+        <v>69.204958289706</v>
+      </c>
+      <c r="J212" t="s">
+        <v>191</v>
+      </c>
+      <c r="K212" t="s">
+        <v>187</v>
+      </c>
+      <c r="L212" t="s">
+        <v>196</v>
+      </c>
+      <c r="M212" t="s">
+        <v>221</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>270</v>
+      </c>
+      <c r="P212" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q212">
+        <v>49000</v>
+      </c>
+      <c r="R212" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
+      <c r="A213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>175</v>
+      </c>
+      <c r="C213" t="s">
+        <v>182</v>
+      </c>
+      <c r="G213">
+        <v>41.2785</v>
+      </c>
+      <c r="H213">
+        <v>69.1949</v>
+      </c>
+      <c r="K213" t="s">
+        <v>186</v>
+      </c>
+      <c r="M213" t="s">
+        <v>226</v>
+      </c>
+      <c r="O213" t="s">
+        <v>270</v>
+      </c>
+      <c r="P213" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q213">
+        <v>2000</v>
+      </c>
+      <c r="R213" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>176</v>
+      </c>
+      <c r="C214" t="s">
+        <v>183</v>
+      </c>
+      <c r="G214">
+        <v>41.2726</v>
+      </c>
+      <c r="H214">
+        <v>69.1902</v>
+      </c>
+      <c r="K214" t="s">
+        <v>189</v>
+      </c>
+      <c r="L214" t="s">
+        <v>196</v>
+      </c>
+      <c r="M214">
+        <v>33000</v>
+      </c>
+      <c r="O214" t="s">
+        <v>270</v>
+      </c>
+      <c r="P214" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q214">
+        <v>250000</v>
+      </c>
+      <c r="R214" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>177</v>
+      </c>
+      <c r="C215" t="s">
+        <v>183</v>
+      </c>
+      <c r="G215">
+        <v>41.2825</v>
+      </c>
+      <c r="H215">
+        <v>69.2593</v>
+      </c>
+      <c r="K215" t="s">
+        <v>188</v>
+      </c>
+      <c r="L215" t="s">
+        <v>198</v>
+      </c>
+      <c r="M215">
+        <v>600</v>
+      </c>
+      <c r="O215" t="s">
+        <v>270</v>
+      </c>
+      <c r="P215" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q215">
+        <v>200000</v>
+      </c>
+      <c r="R215" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>178</v>
+      </c>
+      <c r="C216" t="s">
+        <v>183</v>
+      </c>
+      <c r="G216">
+        <v>41.2386</v>
+      </c>
+      <c r="H216">
+        <v>69.3537</v>
+      </c>
+      <c r="M216">
+        <v>200</v>
+      </c>
+      <c r="O216" t="s">
+        <v>270</v>
+      </c>
+      <c r="P216" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q216">
+        <v>105000</v>
+      </c>
+      <c r="R216" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>179</v>
+      </c>
+      <c r="C217" t="s">
+        <v>182</v>
+      </c>
+      <c r="E217" t="s">
+        <v>184</v>
+      </c>
+      <c r="G217">
+        <v>41.2406</v>
+      </c>
+      <c r="H217">
+        <v>69.35639999999999</v>
+      </c>
+      <c r="J217" t="s">
+        <v>188</v>
+      </c>
+      <c r="K217" t="s">
+        <v>187</v>
+      </c>
+      <c r="L217" t="s">
+        <v>200</v>
+      </c>
+      <c r="M217" t="s">
+        <v>227</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>270</v>
+      </c>
+      <c r="P217" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q217">
+        <v>81000</v>
+      </c>
+      <c r="R217" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>180</v>
+      </c>
+      <c r="C218" t="s">
+        <v>182</v>
+      </c>
+      <c r="E218" t="s">
+        <v>184</v>
+      </c>
+      <c r="G218">
+        <v>41.3164</v>
+      </c>
+      <c r="H218">
+        <v>69.17570000000001</v>
+      </c>
+      <c r="J218" t="s">
+        <v>186</v>
+      </c>
+      <c r="K218" t="s">
+        <v>186</v>
+      </c>
+      <c r="L218" t="s">
+        <v>200</v>
+      </c>
+      <c r="M218" t="s">
+        <v>228</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>270</v>
+      </c>
+      <c r="P218" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q218">
+        <v>54000</v>
+      </c>
+      <c r="R218" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>181</v>
+      </c>
+      <c r="C219" t="s">
+        <v>182</v>
+      </c>
+      <c r="E219" t="s">
+        <v>185</v>
+      </c>
+      <c r="G219">
+        <v>41.3662</v>
+      </c>
+      <c r="H219">
+        <v>69.2831</v>
+      </c>
+      <c r="J219" t="s">
+        <v>191</v>
+      </c>
+      <c r="K219" t="s">
+        <v>192</v>
+      </c>
+      <c r="L219" t="s">
+        <v>196</v>
+      </c>
+      <c r="M219" t="s">
+        <v>215</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>270</v>
+      </c>
+      <c r="P219" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q219">
+        <v>56000</v>
+      </c>
+      <c r="R219" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Data Scrapping/Excels/Joymee/Joymee.xlsx
+++ b/Data Scrapping/Excels/Joymee/Joymee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R438"/>
+  <dimension ref="A1:R545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24587,25 +24587,19 @@
         <v>69.29859999999999</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J387" t="n">
+        <v>3</v>
+      </c>
+      <c r="K387" t="n">
+        <v>4</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="M387" t="n">
+        <v>50</v>
       </c>
       <c r="N387" t="n">
         <v>2</v>
@@ -24659,25 +24653,19 @@
         <v>69.36785162746975</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J388" t="n">
+        <v>3</v>
+      </c>
+      <c r="K388" t="n">
+        <v>4</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="M388" t="n">
+        <v>60</v>
       </c>
       <c r="N388" t="n">
         <v>2</v>
@@ -24728,10 +24716,8 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K389" t="n">
+        <v>2</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -24788,10 +24774,8 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K390" t="n">
+        <v>2</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -24848,10 +24832,8 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K391" t="n">
+        <v>2</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -24908,16 +24890,12 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K392" t="n">
+        <v>2</v>
       </c>
       <c r="L392" t="inlineStr"/>
-      <c r="M392" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
+      <c r="M392" t="n">
+        <v>434</v>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
@@ -25021,25 +24999,19 @@
         <v>69.2092</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J394" t="n">
+        <v>2</v>
+      </c>
+      <c r="K394" t="n">
+        <v>4</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="M394" t="n">
+        <v>48</v>
       </c>
       <c r="N394" t="n">
         <v>2</v>
@@ -25093,25 +25065,19 @@
         <v>69.20959999999999</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="K395" t="n">
+        <v>4</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="M395" t="n">
+        <v>70</v>
       </c>
       <c r="N395" t="n">
         <v>3</v>
@@ -25165,25 +25131,19 @@
         <v>69.1902</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="J396" t="n">
+        <v>10</v>
+      </c>
+      <c r="K396" t="n">
+        <v>16</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>Косметический</t>
         </is>
       </c>
-      <c r="M396" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="M396" t="n">
+        <v>58</v>
       </c>
       <c r="N396" t="n">
         <v>2</v>
@@ -25237,25 +25197,19 @@
         <v>69.3763</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="J397" t="n">
+        <v>13</v>
+      </c>
+      <c r="K397" t="n">
+        <v>16</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>Косметический</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>72.5</t>
-        </is>
+      <c r="M397" t="n">
+        <v>72.5</v>
       </c>
       <c r="N397" t="n">
         <v>3</v>
@@ -25309,21 +25263,15 @@
         <v>69.2578</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="J398" t="n">
+        <v>1</v>
+      </c>
+      <c r="K398" t="n">
+        <v>8</v>
       </c>
       <c r="L398" t="inlineStr"/>
-      <c r="M398" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="M398" t="n">
+        <v>90</v>
       </c>
       <c r="N398" t="n">
         <v>4</v>
@@ -25377,15 +25325,11 @@
         <v>69.23245721561301</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J399" t="n">
+        <v>2</v>
+      </c>
+      <c r="K399" t="n">
+        <v>10</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -25401,11 +25345,7 @@
           <t>02.06.2024</t>
         </is>
       </c>
-      <c r="P399" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="P399" t="inlineStr"/>
       <c r="Q399" t="inlineStr"/>
       <c r="R399" t="inlineStr">
         <is>
@@ -25440,10 +25380,8 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K400" t="n">
+        <v>2</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -25500,10 +25438,8 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K401" t="n">
+        <v>1</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -25563,25 +25499,19 @@
         <v>69.17829999999999</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J402" t="n">
+        <v>8</v>
+      </c>
+      <c r="K402" t="n">
+        <v>9</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M402" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="M402" t="n">
+        <v>100</v>
       </c>
       <c r="N402" t="n">
         <v>4</v>
@@ -25635,25 +25565,19 @@
         <v>69.31652997868517</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J403" t="n">
+        <v>2</v>
+      </c>
+      <c r="K403" t="n">
+        <v>4</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M403" t="inlineStr">
-        <is>
-          <t>44.36</t>
-        </is>
+      <c r="M403" t="n">
+        <v>44.36</v>
       </c>
       <c r="N403" t="n">
         <v>2</v>
@@ -25707,25 +25631,19 @@
         <v>69.27200000000001</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J404" t="n">
+        <v>6</v>
+      </c>
+      <c r="K404" t="n">
+        <v>10</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M404" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="M404" t="n">
+        <v>96</v>
       </c>
       <c r="N404" t="n">
         <v>3</v>
@@ -25776,10 +25694,8 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K405" t="n">
+        <v>2</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -25836,10 +25752,8 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K406" t="n">
+        <v>3</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -25897,25 +25811,19 @@
         <v>69.23909999999999</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J407" t="n">
+        <v>4</v>
+      </c>
+      <c r="K407" t="n">
+        <v>10</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="M407" t="n">
+        <v>80</v>
       </c>
       <c r="N407" t="n">
         <v>3</v>
@@ -25969,25 +25877,19 @@
         <v>69.2239</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J408" t="n">
+        <v>10</v>
+      </c>
+      <c r="K408" t="n">
+        <v>10</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="M408" t="n">
+        <v>120</v>
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
@@ -26039,25 +25941,19 @@
         <v>69.22490000000001</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J409" t="n">
+        <v>3</v>
+      </c>
+      <c r="K409" t="n">
+        <v>9</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>Косметический</t>
         </is>
       </c>
-      <c r="M409" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="M409" t="n">
+        <v>120</v>
       </c>
       <c r="N409" t="n">
         <v>3</v>
@@ -26111,25 +26007,19 @@
         <v>69.3419</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="J410" t="n">
+        <v>3</v>
+      </c>
+      <c r="K410" t="n">
+        <v>5</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>Косметический</t>
         </is>
       </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="M410" t="n">
+        <v>70</v>
       </c>
       <c r="N410" t="n">
         <v>3</v>
@@ -26183,25 +26073,19 @@
         <v>69.1996</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J411" t="n">
+        <v>2</v>
+      </c>
+      <c r="K411" t="n">
+        <v>4</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="M411" t="n">
+        <v>50</v>
       </c>
       <c r="N411" t="n">
         <v>2</v>
@@ -26255,25 +26139,19 @@
         <v>69.2657</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J412" t="n">
+        <v>5</v>
+      </c>
+      <c r="K412" t="n">
+        <v>9</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M412" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="M412" t="n">
+        <v>102</v>
       </c>
       <c r="N412" t="n">
         <v>3</v>
@@ -26327,25 +26205,19 @@
         <v>69.25790000000001</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J413" t="n">
+        <v>6</v>
+      </c>
+      <c r="K413" t="n">
+        <v>9</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="M413" t="n">
+        <v>58</v>
       </c>
       <c r="N413" t="n">
         <v>2</v>
@@ -26399,25 +26271,19 @@
         <v>69.26873867695107</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J414" t="n">
+        <v>2</v>
+      </c>
+      <c r="K414" t="n">
+        <v>9</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="M414" t="n">
+        <v>79</v>
       </c>
       <c r="N414" t="n">
         <v>2</v>
@@ -26471,25 +26337,19 @@
         <v>69.31808424347096</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="J415" t="n">
+        <v>4</v>
+      </c>
+      <c r="K415" t="n">
+        <v>5</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="M415" t="n">
+        <v>70</v>
       </c>
       <c r="N415" t="n">
         <v>3</v>
@@ -26543,25 +26403,19 @@
         <v>69.21700196346441</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J416" t="n">
+        <v>7</v>
+      </c>
+      <c r="K416" t="n">
+        <v>9</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="M416" t="n">
+        <v>95</v>
       </c>
       <c r="N416" t="n">
         <v>4</v>
@@ -26615,25 +26469,19 @@
         <v>69.2278</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J417" t="n">
+        <v>10</v>
+      </c>
+      <c r="K417" t="n">
+        <v>10</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="M417" t="n">
+        <v>62</v>
       </c>
       <c r="N417" t="n">
         <v>3</v>
@@ -26736,10 +26584,8 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K419" t="n">
+        <v>1</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -26796,10 +26642,8 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K420" t="n">
+        <v>2</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -26856,10 +26700,8 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K421" t="n">
+        <v>1</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -26916,10 +26758,8 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K422" t="n">
+        <v>2</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -27026,16 +26866,12 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K424" t="n">
+        <v>1</v>
       </c>
       <c r="L424" t="inlineStr"/>
-      <c r="M424" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
+      <c r="M424" t="n">
+        <v>400</v>
       </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
@@ -27087,25 +26923,19 @@
         <v>69.3207</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J425" t="n">
+        <v>4</v>
+      </c>
+      <c r="K425" t="n">
+        <v>1</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>Не требуется</t>
         </is>
       </c>
-      <c r="M425" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="M425" t="n">
+        <v>68</v>
       </c>
       <c r="N425" t="n">
         <v>4</v>
@@ -27159,25 +26989,19 @@
         <v>69.27970000000001</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="J426" t="n">
+        <v>5</v>
+      </c>
+      <c r="K426" t="n">
+        <v>5</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>Не требуется</t>
         </is>
       </c>
-      <c r="M426" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="M426" t="n">
+        <v>30</v>
       </c>
       <c r="N426" t="n">
         <v>2</v>
@@ -27187,11 +27011,7 @@
           <t>16.05.2024</t>
         </is>
       </c>
-      <c r="P426" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="P426" t="inlineStr"/>
       <c r="Q426" t="inlineStr"/>
       <c r="R426" t="inlineStr">
         <is>
@@ -27229,25 +27049,19 @@
         <v>69.191</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J427" t="n">
+        <v>6</v>
+      </c>
+      <c r="K427" t="n">
+        <v>9</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="M427" t="n">
+        <v>100</v>
       </c>
       <c r="N427" t="n">
         <v>4</v>
@@ -27301,25 +27115,19 @@
         <v>69.21684128667249</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J428" t="n">
+        <v>1</v>
+      </c>
+      <c r="K428" t="n">
+        <v>10</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="M428" t="n">
+        <v>56</v>
       </c>
       <c r="N428" t="n">
         <v>2</v>
@@ -27373,25 +27181,19 @@
         <v>69.19200512209321</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J429" t="n">
+        <v>4</v>
+      </c>
+      <c r="K429" t="n">
+        <v>10</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="M429" t="n">
+        <v>60</v>
       </c>
       <c r="N429" t="n">
         <v>3</v>
@@ -27445,25 +27247,19 @@
         <v>69.21810000000001</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="J430" t="n">
+        <v>16</v>
+      </c>
+      <c r="K430" t="n">
+        <v>17</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>Требуется ремонт</t>
         </is>
       </c>
-      <c r="M430" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="M430" t="n">
+        <v>61</v>
       </c>
       <c r="N430" t="n">
         <v>3</v>
@@ -27514,10 +27310,8 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K431" t="n">
+        <v>1</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -27577,25 +27371,19 @@
         <v>69.31547522754758</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J432" t="n">
+        <v>3</v>
+      </c>
+      <c r="K432" t="n">
+        <v>4</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
+      <c r="M432" t="n">
+        <v>200</v>
       </c>
       <c r="N432" t="n">
         <v>5</v>
@@ -27649,25 +27437,19 @@
         <v>69.3158</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="J433" t="n">
+        <v>2</v>
+      </c>
+      <c r="K433" t="n">
+        <v>7</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>Косметический</t>
         </is>
       </c>
-      <c r="M433" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="M433" t="n">
+        <v>73</v>
       </c>
       <c r="N433" t="n">
         <v>3</v>
@@ -27721,25 +27503,19 @@
         <v>69.2659384114817</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J434" t="n">
+        <v>8</v>
+      </c>
+      <c r="K434" t="n">
+        <v>9</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M434" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="M434" t="n">
+        <v>66</v>
       </c>
       <c r="N434" t="n">
         <v>3</v>
@@ -27793,25 +27569,19 @@
         <v>69.2323</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J435" t="n">
+        <v>6</v>
+      </c>
+      <c r="K435" t="n">
+        <v>9</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="M435" t="n">
+        <v>100</v>
       </c>
       <c r="N435" t="n">
         <v>4</v>
@@ -27865,25 +27635,19 @@
         <v>69.19880000000001</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J436" t="n">
+        <v>6</v>
+      </c>
+      <c r="K436" t="n">
+        <v>10</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>Не требуется</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
+      <c r="M436" t="n">
+        <v>140</v>
       </c>
       <c r="N436" t="n">
         <v>5</v>
@@ -27937,25 +27701,19 @@
         <v>69.19280247470965</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="J437" t="n">
+        <v>6</v>
+      </c>
+      <c r="K437" t="n">
+        <v>10</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="M437" t="n">
+        <v>78</v>
       </c>
       <c r="N437" t="n">
         <v>3</v>
@@ -28009,25 +27767,19 @@
         <v>69.2659</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="J438" t="n">
+        <v>3</v>
+      </c>
+      <c r="K438" t="n">
+        <v>4</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>Евроремонт</t>
         </is>
       </c>
-      <c r="M438" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="M438" t="n">
+        <v>57</v>
       </c>
       <c r="N438" t="n">
         <v>3</v>
@@ -28048,6 +27800,6740 @@
       <c r="R438" t="inlineStr">
         <is>
           <t>05.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani labzakda uchastkamiz sotiladi! YER NARXIDA 3.5 sotix</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="n">
+        <v>41.3338</v>
+      </c>
+      <c r="H439" t="n">
+        <v>69.2603</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>1</v>
+      </c>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="n">
+        <v>350</v>
+      </c>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q439" t="n">
+        <v>48000</v>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Uy sotiladi</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="n">
+        <v>41.2756</v>
+      </c>
+      <c r="H440" t="n">
+        <v>69.2253</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>2</v>
+      </c>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="n">
+        <v>800</v>
+      </c>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q440" t="n">
+        <v>35000</v>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Tayyor ishlab turgan mehmonxona sotiladi barcha mebel texnikalari bilan</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="n">
+        <v>41.2548</v>
+      </c>
+      <c r="H441" t="n">
+        <v>69.2026</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>2</v>
+      </c>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="n">
+        <v>400</v>
+      </c>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q441" t="n">
+        <v>320000</v>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Tayyor biznes sotiladi arenda olib yurgizishga zor variant</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="n">
+        <v>41.3497</v>
+      </c>
+      <c r="H442" t="n">
+        <v>69.191</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q442" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Яшнабод район, Тузел, махалла  А. Серикбаева  4,4 сотих</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="n">
+        <v>41.3127</v>
+      </c>
+      <c r="H443" t="n">
+        <v>69.42910000000001</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="n">
+        <v>440.0000000000001</v>
+      </c>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q443" t="n">
+        <v>16500</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Манзил яшнабод яккатол. 2тор куча  29 уй  йер нархига сотилади</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="n">
+        <v>41.2768</v>
+      </c>
+      <c r="H444" t="n">
+        <v>69.37350000000001</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>1</v>
+      </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="n">
+        <v>500</v>
+      </c>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q444" t="n">
+        <v>33000</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Сергели тумани махалла кумарик  Sergeli tumani qumariq mahallasida  8-sotix xovli sotiladi!!</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="n">
+        <v>41.2364</v>
+      </c>
+      <c r="H445" t="n">
+        <v>69.252</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>1</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M445" t="n">
+        <v>800</v>
+      </c>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>30.05.2024</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q445" t="n">
+        <v>255000</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Katej</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="n">
+        <v>41.2362</v>
+      </c>
+      <c r="H446" t="n">
+        <v>69.25920000000001</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>2</v>
+      </c>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="n">
+        <v>100</v>
+      </c>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>01.06.2024</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q446" t="n">
+        <v>90000</v>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Uy sotiladi</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="n">
+        <v>41.2505</v>
+      </c>
+      <c r="H447" t="n">
+        <v>69.2099</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="n">
+        <v>400</v>
+      </c>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q447" t="n">
+        <v>26000</v>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Uy sotiladi</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="n">
+        <v>41.2694</v>
+      </c>
+      <c r="H448" t="n">
+        <v>69.2105</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="n">
+        <v>600</v>
+      </c>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>04.06.2024</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q448" t="n">
+        <v>100000</v>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>XONABOD</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="n">
+        <v>41.2234</v>
+      </c>
+      <c r="H449" t="n">
+        <v>69.28189999999999</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="n">
+        <v>300</v>
+      </c>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>26.04.2024</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q449" t="n">
+        <v>145000</v>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Тошкент шаҳри, Сергели тумани, Хонобод маҳалласи</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="n">
+        <v>41.2221</v>
+      </c>
+      <c r="H450" t="n">
+        <v>69.2587</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M450" t="n">
+        <v>250</v>
+      </c>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q450" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Сергели ҳонабод мустақиллик косасида уй сотилади</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="n">
+        <v>41.2275</v>
+      </c>
+      <c r="H451" t="n">
+        <v>69.2963</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>1</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M451" t="n">
+        <v>400</v>
+      </c>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q451" t="n">
+        <v>140000</v>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Сергели тумани, Строительный (Хонабод) Фароғат МФЙ, Метро Қурувчи бекати</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="n">
+        <v>41.2149</v>
+      </c>
+      <c r="H452" t="n">
+        <v>69.26909999999999</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>2</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M452" t="n">
+        <v>250</v>
+      </c>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q452" t="n">
+        <v>129000</v>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Olmazor tumani oxunboboyev mahallasida 1.1 sotixli 4ta kattej sptoladi Karobka holatda 70,000$</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="n">
+        <v>41.3893</v>
+      </c>
+      <c r="H453" t="n">
+        <v>69.2234</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>2</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M453" t="n">
+        <v>110</v>
+      </c>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>25.05.2024</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q453" t="n">
+        <v>70000</v>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Olmazor tumani oxunboyev tumani ahillik kochasi  6sotixli uy sotiladi!</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="n">
+        <v>41.3743</v>
+      </c>
+      <c r="H454" t="n">
+        <v>69.2265</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>3</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M454" t="n">
+        <v>600</v>
+      </c>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Sergeli quruvchi massiv</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="n">
+        <v>41.217</v>
+      </c>
+      <c r="H455" t="n">
+        <v>69.2653</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>2</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M455" t="n">
+        <v>200</v>
+      </c>
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q455" t="n">
+        <v>129000</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Юнусобод туманида жуда юкори сифат Билан ремон килинган 2.1 сотих участка сотилади!</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="n">
+        <v>41.3558</v>
+      </c>
+      <c r="H456" t="n">
+        <v>69.2903</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>2</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M456" t="n">
+        <v>210</v>
+      </c>
+      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q456" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Сергели Шокир-Арик, Продажа коттеджей</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="n">
+        <v>41.2144</v>
+      </c>
+      <c r="H457" t="n">
+        <v>69.2062</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>2</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M457" t="n">
+        <v>100</v>
+      </c>
+      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q457" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Продается дом Евро коробка</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="n">
+        <v>41.3797</v>
+      </c>
+      <c r="H458" t="n">
+        <v>69.2924</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>3</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M458" t="n">
+        <v>160</v>
+      </c>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Юнусобод тумани 15-квартилда дехконобод махалла  1,8 сотихли уй сотилади!</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="n">
+        <v>41.3802</v>
+      </c>
+      <c r="H459" t="n">
+        <v>69.30589999999999</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>2</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M459" t="n">
+        <v>180</v>
+      </c>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q459" t="n">
+        <v>245000</v>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Нежилй помишения</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="n">
+        <v>41.2048</v>
+      </c>
+      <c r="H460" t="n">
+        <v>69.21769999999999</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="n">
+        <v>100</v>
+      </c>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q460" t="n">
+        <v>95000</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Сергелийский район, махалла  Эзгулик ) Sergeli tumani tayyor biznus uchun 2-ejajli zdaniya</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="n">
+        <v>41.2235</v>
+      </c>
+      <c r="H461" t="n">
+        <v>69.21599999999999</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>2</v>
+      </c>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="n">
+        <v>434</v>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>30.05.2024</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q461" t="n">
+        <v>280000</v>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani ibn sono 1 mavze</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="n">
+        <v>41.3355</v>
+      </c>
+      <c r="H462" t="n">
+        <v>69.17059999999999</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2</v>
+      </c>
+      <c r="K462" t="n">
+        <v>5</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M462" t="n">
+        <v>83</v>
+      </c>
+      <c r="N462" t="n">
+        <v>4</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>01.06.2024</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q462" t="n">
+        <v>95000</v>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Ташкент  Шайхантахурский район</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="n">
+        <v>41.3283</v>
+      </c>
+      <c r="H463" t="n">
+        <v>69.1972</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>8</v>
+      </c>
+      <c r="K463" t="n">
+        <v>8</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M463" t="n">
+        <v>290</v>
+      </c>
+      <c r="N463" t="n">
+        <v>4</v>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q463" t="n">
+        <v>880</v>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Chilonzor 16 4A dom 2/2/4</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="n">
+        <v>41.273</v>
+      </c>
+      <c r="H464" t="n">
+        <v>69.1996</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2</v>
+      </c>
+      <c r="K464" t="n">
+        <v>4</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M464" t="n">
+        <v>50</v>
+      </c>
+      <c r="N464" t="n">
+        <v>2</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>04.06.2024</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q464" t="n">
+        <v>68500</v>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>istanbul city</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="n">
+        <v>41.2713</v>
+      </c>
+      <c r="H465" t="n">
+        <v>69.185</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1</v>
+      </c>
+      <c r="K465" t="n">
+        <v>8</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr"/>
+      <c r="N465" t="n">
+        <v>1</v>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>26.04.2024</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q465" t="n">
+        <v>100000</v>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani Oliy majlis komolon masjidini oldida</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="n">
+        <v>41.3035</v>
+      </c>
+      <c r="H466" t="n">
+        <v>69.2323</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>1</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M466" t="n">
+        <v>440.0000000000001</v>
+      </c>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q466" t="n">
+        <v>70000</v>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Chilonzor 6 kvartal   3/1/4</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="n">
+        <v>41.288</v>
+      </c>
+      <c r="H467" t="n">
+        <v>69.20959999999999</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1</v>
+      </c>
+      <c r="K467" t="n">
+        <v>4</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M467" t="n">
+        <v>70</v>
+      </c>
+      <c r="N467" t="n">
+        <v>3</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q467" t="n">
+        <v>119000</v>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Yangi Hayot tumani 5-metro bekatida fayizli kvartira sotiladi 3 xonali remonti yaxshi</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="n">
+        <v>41.20562141953386</v>
+      </c>
+      <c r="H468" t="n">
+        <v>69.21770434971205</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>4</v>
+      </c>
+      <c r="K468" t="n">
+        <v>5</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M468" t="n">
+        <v>77</v>
+      </c>
+      <c r="N468" t="n">
+        <v>3</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q468" t="n">
+        <v>76000</v>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Kvartira</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="n">
+        <v>41.345</v>
+      </c>
+      <c r="H469" t="n">
+        <v>69.2303</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>7</v>
+      </c>
+      <c r="K469" t="n">
+        <v>9</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M469" t="n">
+        <v>92</v>
+      </c>
+      <c r="N469" t="n">
+        <v>3</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>25.05.2024</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q469" t="n">
+        <v>840</v>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Ташкент, Учтепинский район</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="n">
+        <v>41.2892</v>
+      </c>
+      <c r="H470" t="n">
+        <v>69.1808</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6</v>
+      </c>
+      <c r="K470" t="n">
+        <v>9</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M470" t="n">
+        <v>100</v>
+      </c>
+      <c r="N470" t="n">
+        <v>4</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q470" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Юнусабад-15.своя.78-дом 2'3/3/4 Ипотека можна</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="n">
+        <v>41.3814</v>
+      </c>
+      <c r="H471" t="n">
+        <v>69.29859999999999</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3</v>
+      </c>
+      <c r="K471" t="n">
+        <v>4</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M471" t="n">
+        <v>50</v>
+      </c>
+      <c r="N471" t="n">
+        <v>2</v>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q471" t="n">
+        <v>68000</v>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Yunusobod 14 kvartal 4/1/4   orientir:  baxodir astanovka</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="n">
+        <v>41.3742</v>
+      </c>
+      <c r="H472" t="n">
+        <v>69.3031</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1</v>
+      </c>
+      <c r="K472" t="n">
+        <v>4</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M472" t="n">
+        <v>92</v>
+      </c>
+      <c r="N472" t="n">
+        <v>4</v>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q472" t="n">
+        <v>115000</v>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Шайхонтоҳур — Белтепада 2*3/5/5   балкон 2×6 ✅Ипатека килса болади</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="n">
+        <v>41.3408</v>
+      </c>
+      <c r="H473" t="n">
+        <v>69.1708</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>5</v>
+      </c>
+      <c r="K473" t="n">
+        <v>5</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M473" t="n">
+        <v>57</v>
+      </c>
+      <c r="N473" t="n">
+        <v>2</v>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q473" t="n">
+        <v>51800</v>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Мирзо-Улугбекс район Мажмуа Ок сарой навастройка  7/8</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="n">
+        <v>41.3125</v>
+      </c>
+      <c r="H474" t="n">
+        <v>69.3335</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>7</v>
+      </c>
+      <c r="K474" t="n">
+        <v>9</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M474" t="n">
+        <v>95</v>
+      </c>
+      <c r="N474" t="n">
+        <v>4</v>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q474" t="n">
+        <v>108000</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>СРОЧНО!!! Продаётся квартира в Алмазаре 2/2/4  Коракамиш 1/2 В ИПОТЕКУ</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="n">
+        <v>41.3543</v>
+      </c>
+      <c r="H475" t="n">
+        <v>69.2359</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2</v>
+      </c>
+      <c r="K475" t="n">
+        <v>4</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M475" t="n">
+        <v>58</v>
+      </c>
+      <c r="N475" t="n">
+        <v>2</v>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q475" t="n">
+        <v>60000</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Ibn sino Stroy Mart Bozori tòrisda Karopka uy zangiota tumani yòli yuzida 3/4/4</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="n">
+        <v>41.3381</v>
+      </c>
+      <c r="H476" t="n">
+        <v>69.164</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>4</v>
+      </c>
+      <c r="K476" t="n">
+        <v>4</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M476" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="N476" t="n">
+        <v>3</v>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Мирзо Улугбек тумани ТТЗ 1/6/7  Новостройка Студия Сотилади! Нархи 36,000$</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="n">
+        <v>41.3514</v>
+      </c>
+      <c r="H477" t="n">
+        <v>69.3844</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>6</v>
+      </c>
+      <c r="K477" t="n">
+        <v>7</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M477" t="n">
+        <v>28</v>
+      </c>
+      <c r="N477" t="n">
+        <v>1</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>02.06.2024</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q477" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Чилонзор тумани  думбираобод мавзеда  83кв.мли 3хона квартира сотилади! мулжал: Тошкент Амалиет Унив</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="n">
+        <v>41.2535</v>
+      </c>
+      <c r="H478" t="n">
+        <v>69.20740000000001</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2</v>
+      </c>
+      <c r="K478" t="n">
+        <v>3</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M478" t="n">
+        <v>83</v>
+      </c>
+      <c r="N478" t="n">
+        <v>3</v>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>26.05.2024</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q478" t="n">
+        <v>97500</v>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani 17 kvartilda navastroykani 60kvadiratli podval sotiladi yevro remont qilingan</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="n">
+        <v>41.2708</v>
+      </c>
+      <c r="H479" t="n">
+        <v>69.194</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1</v>
+      </c>
+      <c r="K479" t="n">
+        <v>7</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>60</v>
+      </c>
+      <c r="N479" t="n">
+        <v>2</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q479" t="n">
+        <v>45000</v>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Chilonzor E kvartl</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="n">
+        <v>41.2885</v>
+      </c>
+      <c r="H480" t="n">
+        <v>69.2239</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>10</v>
+      </c>
+      <c r="K480" t="n">
+        <v>10</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>120</v>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q480" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Mirobod tumani  nukus ko'chasida 3/6/10 navastroyka sotiladi!</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="n">
+        <v>41.2857</v>
+      </c>
+      <c r="H481" t="n">
+        <v>69.27200000000001</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>6</v>
+      </c>
+      <c r="K481" t="n">
+        <v>10</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>96</v>
+      </c>
+      <c r="N481" t="n">
+        <v>3</v>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>07.06.2024</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q481" t="n">
+        <v>230000</v>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Qoraqamish 2/1 120kvadiratli 3xonali uy sotiladi 3/3/9</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="n">
+        <v>41.3591</v>
+      </c>
+      <c r="H482" t="n">
+        <v>69.22490000000001</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3</v>
+      </c>
+      <c r="K482" t="n">
+        <v>9</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>120</v>
+      </c>
+      <c r="N482" t="n">
+        <v>3</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q482" t="n">
+        <v>90000</v>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Мирзо-Улугбекский район Академика городок дейилади 3/3/5</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="n">
+        <v>41.3452</v>
+      </c>
+      <c r="H483" t="n">
+        <v>69.3419</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3</v>
+      </c>
+      <c r="K483" t="n">
+        <v>5</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M483" t="n">
+        <v>70</v>
+      </c>
+      <c r="N483" t="n">
+        <v>3</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q483" t="n">
+        <v>102000</v>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>kvartira sotiladi</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="n">
+        <v>41.3126</v>
+      </c>
+      <c r="H484" t="n">
+        <v>69.3244</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>8</v>
+      </c>
+      <c r="K484" t="n">
+        <v>9</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M484" t="n">
+        <v>72</v>
+      </c>
+      <c r="N484" t="n">
+        <v>3</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q484" t="n">
+        <v>68500</v>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>srochna sotiladi</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="n">
+        <v>41.24347645398439</v>
+      </c>
+      <c r="H485" t="n">
+        <v>69.26140966989659</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>10</v>
+      </c>
+      <c r="K485" t="n">
+        <v>16</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M485" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="N485" t="n">
+        <v>2</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>25.05.2024</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q485" t="n">
+        <v>66000</v>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Ташкент, Учтепинский район</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="n">
+        <v>41.2911</v>
+      </c>
+      <c r="H486" t="n">
+        <v>69.17829999999999</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>8</v>
+      </c>
+      <c r="K486" t="n">
+        <v>9</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>100</v>
+      </c>
+      <c r="N486" t="n">
+        <v>4</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q486" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Жилой комплекс Solaris</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="n">
+        <v>41.2692</v>
+      </c>
+      <c r="H487" t="n">
+        <v>69.23909999999999</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>4</v>
+      </c>
+      <c r="K487" t="n">
+        <v>10</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M487" t="n">
+        <v>80</v>
+      </c>
+      <c r="N487" t="n">
+        <v>3</v>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q487" t="n">
+        <v>139000</v>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Beshyogoch/ Бешагач 1/1/3  с мебелью и техникой</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="n">
+        <v>41.3066</v>
+      </c>
+      <c r="H488" t="n">
+        <v>69.2351</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1</v>
+      </c>
+      <c r="K488" t="n">
+        <v>3</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M488" t="n">
+        <v>29</v>
+      </c>
+      <c r="N488" t="n">
+        <v>1</v>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q488" t="n">
+        <v>65000</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1 в 2/ 3 /4 Яшнабодский район Оханграбо и Метро</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="n">
+        <v>41.304</v>
+      </c>
+      <c r="H489" t="n">
+        <v>69.2484</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3</v>
+      </c>
+      <c r="K489" t="n">
+        <v>4</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M489" t="n">
+        <v>35</v>
+      </c>
+      <c r="N489" t="n">
+        <v>1</v>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q489" t="n">
+        <v>39500</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Гузал махалля 3.6 сотихли Евро Ховли Сотилади</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="n">
+        <v>41.3143</v>
+      </c>
+      <c r="H490" t="n">
+        <v>69.3248</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M490" t="n">
+        <v>360</v>
+      </c>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q490" t="n">
+        <v>260000</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Яаккасарой тумани Шота Руставели кучаси</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="n">
+        <v>41.2545</v>
+      </c>
+      <c r="H491" t="n">
+        <v>69.34650000000001</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2</v>
+      </c>
+      <c r="K491" t="n">
+        <v>5</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M491" t="n">
+        <v>28</v>
+      </c>
+      <c r="N491" t="n">
+        <v>1</v>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q491" t="n">
+        <v>46200</v>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>ПРОДАЁТСЯ Юнусабад 18 квартал ориентир Чайка</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="n">
+        <v>41.288</v>
+      </c>
+      <c r="H492" t="n">
+        <v>69.3621</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>4</v>
+      </c>
+      <c r="K492" t="n">
+        <v>4</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M492" t="n">
+        <v>72</v>
+      </c>
+      <c r="N492" t="n">
+        <v>3</v>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q492" t="n">
+        <v>76000</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani labzakda uchastkamiz sotiladi! YER NARXIDA 3.5 sotix</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="n">
+        <v>41.3338</v>
+      </c>
+      <c r="H493" t="n">
+        <v>69.2603</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="n">
+        <v>350</v>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>19.05.2024</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q493" t="n">
+        <v>48000</v>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Uy sotiladi</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="n">
+        <v>41.2756</v>
+      </c>
+      <c r="H494" t="n">
+        <v>69.2253</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="n">
+        <v>800</v>
+      </c>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>02.06.2024</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q494" t="n">
+        <v>35000</v>
+      </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Tayyor ishlab turgan mehmonxona sotiladi barcha mebel texnikalari bilan</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="n">
+        <v>41.2548</v>
+      </c>
+      <c r="H495" t="n">
+        <v>69.2026</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q495" t="n">
+        <v>320000</v>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Tayyor biznes sotiladi arenda olib yurgizishga zor variant</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="n">
+        <v>41.3497</v>
+      </c>
+      <c r="H496" t="n">
+        <v>69.191</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>27.05.2024</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q496" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Яшнабод район, Тузел, махалла  А. Серикбаева  4,4 сотих</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="n">
+        <v>41.3127</v>
+      </c>
+      <c r="H497" t="n">
+        <v>69.42910000000001</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="n">
+        <v>440.0000000000001</v>
+      </c>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>01.06.2024</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q497" t="n">
+        <v>16500</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Манзил яшнабод яккатол. 2тор куча  29 уй  йер нархига сотилади</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="n">
+        <v>41.2768</v>
+      </c>
+      <c r="H498" t="n">
+        <v>69.37350000000001</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="n">
+        <v>500</v>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q498" t="n">
+        <v>33000</v>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Сергели тумани махалла кумарик  Sergeli tumani qumariq mahallasida  8-sotix xovli sotiladi!!</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="n">
+        <v>41.2364</v>
+      </c>
+      <c r="H499" t="n">
+        <v>69.252</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>800</v>
+      </c>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q499" t="n">
+        <v>255000</v>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Katej</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="n">
+        <v>41.2362</v>
+      </c>
+      <c r="H500" t="n">
+        <v>69.25920000000001</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="n">
+        <v>100</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>27.05.2024</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q500" t="n">
+        <v>90000</v>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Uy sotiladi</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="n">
+        <v>41.2505</v>
+      </c>
+      <c r="H501" t="n">
+        <v>69.2099</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="n">
+        <v>600</v>
+      </c>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q501" t="n">
+        <v>100000</v>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>XONABOD</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="n">
+        <v>41.2694</v>
+      </c>
+      <c r="H502" t="n">
+        <v>69.2105</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="n">
+        <v>300</v>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q502" t="n">
+        <v>145000</v>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Тошкент шаҳри, Сергели тумани, Хонобод маҳалласи</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="n">
+        <v>41.2234</v>
+      </c>
+      <c r="H503" t="n">
+        <v>69.28189999999999</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>250</v>
+      </c>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q503" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Сергели ҳонабод мустақиллик косасида уй сотилади</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="n">
+        <v>41.2221</v>
+      </c>
+      <c r="H504" t="n">
+        <v>69.2587</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>400</v>
+      </c>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q504" t="n">
+        <v>140000</v>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Сергели тумани, Строительный (Хонабод) Фароғат МФЙ, Метро Қурувчи бекати</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="n">
+        <v>41.2275</v>
+      </c>
+      <c r="H505" t="n">
+        <v>69.2963</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M505" t="n">
+        <v>250</v>
+      </c>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q505" t="n">
+        <v>129000</v>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Olmazor tumani oxunboboyev mahallasida 1.1 sotixli 4ta kattej sptoladi Karobka holatda 70,000$</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="n">
+        <v>41.2149</v>
+      </c>
+      <c r="H506" t="n">
+        <v>69.26909999999999</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>110</v>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q506" t="n">
+        <v>70000</v>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Olmazor tumani oxunboyev tumani ahillik kochasi  6sotixli uy sotiladi!</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="n">
+        <v>41.3893</v>
+      </c>
+      <c r="H507" t="n">
+        <v>69.2234</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M507" t="n">
+        <v>600</v>
+      </c>
+      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>26.05.2024</t>
+        </is>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q507" t="inlineStr"/>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Sergeli quruvchi massiv</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="n">
+        <v>41.3743</v>
+      </c>
+      <c r="H508" t="n">
+        <v>69.2265</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M508" t="n">
+        <v>200</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q508" t="n">
+        <v>129000</v>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Юнусобод туманида жуда юкори сифат Билан ремон килинган 2.1 сотих участка сотилади!</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="n">
+        <v>41.217</v>
+      </c>
+      <c r="H509" t="n">
+        <v>69.2653</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>210</v>
+      </c>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>19.05.2024</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q509" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Сергели Шокир-Арик, Продажа коттеджей</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="n">
+        <v>41.3558</v>
+      </c>
+      <c r="H510" t="n">
+        <v>69.2903</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M510" t="n">
+        <v>100</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>02.06.2024</t>
+        </is>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q510" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Продается дом Евро коробка</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="n">
+        <v>41.2144</v>
+      </c>
+      <c r="H511" t="n">
+        <v>69.2062</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M511" t="n">
+        <v>160</v>
+      </c>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q511" t="inlineStr"/>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Юнусобод тумани 15-квартилда дехконобод махалла  1,8 сотихли уй сотилади!</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="n">
+        <v>41.3797</v>
+      </c>
+      <c r="H512" t="n">
+        <v>69.2924</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M512" t="n">
+        <v>180</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>27.05.2024</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q512" t="n">
+        <v>245000</v>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Нежилй помишения</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="n">
+        <v>41.3802</v>
+      </c>
+      <c r="H513" t="n">
+        <v>69.30589999999999</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>01.06.2024</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q513" t="n">
+        <v>95000</v>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Сергелийский район, махалла  Эзгулик ) Sergeli tumani tayyor biznus uchun 2-ejajli zdaniya</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="n">
+        <v>41.2048</v>
+      </c>
+      <c r="H514" t="n">
+        <v>69.21769999999999</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q514" t="n">
+        <v>280000</v>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani ibn sono 1 mavze</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="n">
+        <v>41.2235</v>
+      </c>
+      <c r="H515" t="n">
+        <v>69.21599999999999</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N515" t="n">
+        <v>4</v>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q515" t="n">
+        <v>95000</v>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Ташкент  Шайхантахурский район</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="n">
+        <v>41.3355</v>
+      </c>
+      <c r="H516" t="n">
+        <v>69.17059999999999</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="N516" t="n">
+        <v>4</v>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>27.05.2024</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q516" t="n">
+        <v>880</v>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>istanbul city</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="n">
+        <v>41.3283</v>
+      </c>
+      <c r="H517" t="n">
+        <v>69.1972</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr"/>
+      <c r="N517" t="n">
+        <v>1</v>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q517" t="n">
+        <v>100000</v>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Shayxontoxur tumani Oliy majlis komolon masjidini oldida</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="n">
+        <v>41.273</v>
+      </c>
+      <c r="H518" t="n">
+        <v>69.1996</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M518" t="n">
+        <v>440.0000000000001</v>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q518" t="n">
+        <v>70000</v>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Chilonzor 6 kvartal   3/1/4</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="n">
+        <v>41.2713</v>
+      </c>
+      <c r="H519" t="n">
+        <v>69.185</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N519" t="n">
+        <v>3</v>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q519" t="n">
+        <v>119000</v>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Yangi Hayot tumani 5-metro bekatida fayizli kvartira sotiladi 3 xonali remonti yaxshi</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="n">
+        <v>41.3035</v>
+      </c>
+      <c r="H520" t="n">
+        <v>69.2323</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N520" t="n">
+        <v>3</v>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q520" t="n">
+        <v>76000</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Kvartira</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="n">
+        <v>41.288</v>
+      </c>
+      <c r="H521" t="n">
+        <v>69.20959999999999</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N521" t="n">
+        <v>3</v>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q521" t="n">
+        <v>840</v>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Юнусабад-15.своя.78-дом 2'3/3/4 Ипотека можна</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="n">
+        <v>41.20562141953386</v>
+      </c>
+      <c r="H522" t="n">
+        <v>69.21770434971205</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N522" t="n">
+        <v>2</v>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q522" t="n">
+        <v>68000</v>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Yunusobod 14 kvartal 4/1/4   orientir:  baxodir astanovka</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="n">
+        <v>41.345</v>
+      </c>
+      <c r="H523" t="n">
+        <v>69.2303</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N523" t="n">
+        <v>4</v>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>26.05.2024</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q523" t="n">
+        <v>115000</v>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Шайхонтоҳур — Белтепада 2*3/5/5   балкон 2×6 ✅Ипатека килса болади</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="n">
+        <v>41.2892</v>
+      </c>
+      <c r="H524" t="n">
+        <v>69.1808</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N524" t="n">
+        <v>2</v>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q524" t="n">
+        <v>51800</v>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Мирзо-Улугбекс район Мажмуа Ок сарой навастройка  7/8</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="n">
+        <v>41.3814</v>
+      </c>
+      <c r="H525" t="n">
+        <v>69.29859999999999</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N525" t="n">
+        <v>4</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>19.05.2024</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q525" t="n">
+        <v>108000</v>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>СРОЧНО!!! Продаётся квартира в Алмазаре 2/2/4  Коракамиш 1/2 В ИПОТЕКУ</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="n">
+        <v>41.3742</v>
+      </c>
+      <c r="H526" t="n">
+        <v>69.3031</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N526" t="n">
+        <v>2</v>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>02.06.2024</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q526" t="n">
+        <v>60000</v>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Ibn sino Stroy Mart Bozori tòrisda Karopka uy zangiota tumani yòli yuzida 3/4/4</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="n">
+        <v>41.3408</v>
+      </c>
+      <c r="H527" t="n">
+        <v>69.1708</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="N527" t="n">
+        <v>3</v>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q527" t="inlineStr"/>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Мирзо Улугбек тумани ТТЗ 1/6/7  Новостройка Студия Сотилади! Нархи 36,000$</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="n">
+        <v>41.3125</v>
+      </c>
+      <c r="H528" t="n">
+        <v>69.3335</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N528" t="n">
+        <v>1</v>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q528" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Чилонзор тумани  думбираобод мавзеда  83кв.мли 3хона квартира сотилади! мулжал: Тошкент Амалиет Унив</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="n">
+        <v>41.3543</v>
+      </c>
+      <c r="H529" t="n">
+        <v>69.2359</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N529" t="n">
+        <v>3</v>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q529" t="n">
+        <v>97500</v>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani 17 kvartilda navastroykani 60kvadiratli podval sotiladi yevro remont qilingan</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="n">
+        <v>41.3381</v>
+      </c>
+      <c r="H530" t="n">
+        <v>69.164</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N530" t="n">
+        <v>2</v>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q530" t="n">
+        <v>45000</v>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Chilonzor E kvartl</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="n">
+        <v>41.3514</v>
+      </c>
+      <c r="H531" t="n">
+        <v>69.3844</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>02.06.2024</t>
+        </is>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q531" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Mirobod tumani  nukus ko'chasida 3/6/10 navastroyka sotiladi!</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="n">
+        <v>41.2535</v>
+      </c>
+      <c r="H532" t="n">
+        <v>69.20740000000001</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N532" t="n">
+        <v>3</v>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>26.05.2024</t>
+        </is>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q532" t="n">
+        <v>230000</v>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Qoraqamish 2/1 120kvadiratli 3xonali uy sotiladi 3/3/9</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="n">
+        <v>41.2708</v>
+      </c>
+      <c r="H533" t="n">
+        <v>69.194</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N533" t="n">
+        <v>3</v>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>14.06.2024</t>
+        </is>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q533" t="n">
+        <v>90000</v>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Мирзо-Улугбекский район Академика городок дейилади 3/3/5</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="n">
+        <v>41.2885</v>
+      </c>
+      <c r="H534" t="n">
+        <v>69.2239</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N534" t="n">
+        <v>3</v>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q534" t="n">
+        <v>102000</v>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>kvartira sotiladi</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="n">
+        <v>41.2857</v>
+      </c>
+      <c r="H535" t="n">
+        <v>69.27200000000001</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N535" t="n">
+        <v>3</v>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>07.06.2024</t>
+        </is>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q535" t="n">
+        <v>68500</v>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>srochna sotiladi</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="n">
+        <v>41.3591</v>
+      </c>
+      <c r="H536" t="n">
+        <v>69.22490000000001</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>54.85</t>
+        </is>
+      </c>
+      <c r="N536" t="n">
+        <v>2</v>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q536" t="n">
+        <v>66000</v>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Ташкент, Учтепинский район</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="n">
+        <v>41.3452</v>
+      </c>
+      <c r="H537" t="n">
+        <v>69.3419</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N537" t="n">
+        <v>4</v>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>06.06.2024</t>
+        </is>
+      </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q537" t="n">
+        <v>110000</v>
+      </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Жилой комплекс Solaris</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="n">
+        <v>41.3126</v>
+      </c>
+      <c r="H538" t="n">
+        <v>69.3244</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N538" t="n">
+        <v>3</v>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>03.06.2024</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q538" t="n">
+        <v>139000</v>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SHAYXONTOXUR TUMANI</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="n">
+        <v>41.24347645398439</v>
+      </c>
+      <c r="H539" t="n">
+        <v>69.26140966989659</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M539" t="n">
+        <v>450</v>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>25.05.2024</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q539" t="n">
+        <v>315000</v>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Beshyogoch/ Бешагач 1/1/3  с мебелью и техникой</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="n">
+        <v>41.2911</v>
+      </c>
+      <c r="H540" t="n">
+        <v>69.17829999999999</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N540" t="n">
+        <v>1</v>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>10.06.2024</t>
+        </is>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q540" t="n">
+        <v>65000</v>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Срочно продаётся на Паркентский  2/2/7</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Новостройка</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="n">
+        <v>41.2692</v>
+      </c>
+      <c r="H541" t="n">
+        <v>69.23909999999999</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N541" t="n">
+        <v>2</v>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q541" t="n">
+        <v>71500</v>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>1 в 2/ 3 /4 Яшнабодский район Оханграбо и Метро</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="n">
+        <v>41.3066</v>
+      </c>
+      <c r="H542" t="n">
+        <v>69.2351</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>Косметический</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N542" t="n">
+        <v>1</v>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>12.06.2024</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q542" t="n">
+        <v>39500</v>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Гузал махалля 3.6 сотихли Евро Ховли Сотилади</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Участок</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="n">
+        <v>41.304</v>
+      </c>
+      <c r="H543" t="n">
+        <v>69.2484</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M543" t="n">
+        <v>360</v>
+      </c>
+      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>16.06.2024</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q543" t="n">
+        <v>260000</v>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Яаккасарой тумани Шота Руставели кучаси</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="n">
+        <v>41.3143</v>
+      </c>
+      <c r="H544" t="n">
+        <v>69.3248</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>Евроремонт</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N544" t="n">
+        <v>1</v>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>08.06.2024</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q544" t="n">
+        <v>46200</v>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Joymee</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>ПРОДАЁТСЯ Юнусабад 18 квартал ориентир Чайка</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Вторичка</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="n">
+        <v>41.2545</v>
+      </c>
+      <c r="H545" t="n">
+        <v>69.34650000000001</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>Требуется ремонт</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N545" t="n">
+        <v>3</v>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>31.05.2024</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q545" t="n">
+        <v>76000</v>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>17.06.2024</t>
         </is>
       </c>
     </row>
